--- a/Alige/Tai Lieu Nhom 3/exel -finall.xlsx
+++ b/Alige/Tai Lieu Nhom 3/exel -finall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huynhhoang/Documents/HocTap/Alige/Tai Lieu Nhom 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6C642D-13B3-3F45-B7C1-0E6025C5C94A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59D7398-F43D-6D46-A5EA-7B926A28167E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="1360" windowWidth="27240" windowHeight="15020" activeTab="5" xr2:uid="{42BF1644-0E73-7949-97AB-7A12CBEFC46D}"/>
+    <workbookView xWindow="360" yWindow="1360" windowWidth="27240" windowHeight="15020" firstSheet="1" activeTab="9" xr2:uid="{42BF1644-0E73-7949-97AB-7A12CBEFC46D}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <sheet name="Gantt" sheetId="9" r:id="rId9"/>
     <sheet name="Quan Li Thoi Gian" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2306,9 +2306,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2371,30 +2386,145 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2434,6 +2564,12 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2473,6 +2609,15 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2494,6 +2639,15 @@
     <xf numFmtId="14" fontId="19" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2506,6 +2660,9 @@
     <xf numFmtId="0" fontId="32" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2530,257 +2687,101 @@
     <xf numFmtId="0" fontId="36" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="33" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="37" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="39" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="39" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3153,8 +3154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4E6C175-D256-0D4A-A3B2-750F351FE236}">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3172,901 +3173,901 @@
       <c r="A1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="19">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="87" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="85" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="85" t="s">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:7" ht="38">
-      <c r="A3" s="86"/>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="16" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="54" customHeight="1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="15">
-        <v>1</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="20">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="21">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="34">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="15">
-        <v>1</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="E5" s="20">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="21">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="34">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="14">
-        <v>1</v>
-      </c>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="19">
+        <v>1</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="21">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="34">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="14">
-        <v>1</v>
-      </c>
-      <c r="F7" s="13" t="s">
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="34">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="14">
-        <v>2</v>
-      </c>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="19">
+        <v>2</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28" customHeight="1">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:7" ht="34">
+      <c r="A9" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="14">
-        <v>2</v>
-      </c>
-      <c r="F9" s="13" t="s">
+      <c r="E9" s="19">
+        <v>2</v>
+      </c>
+      <c r="F9" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="34">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="14">
-        <v>1</v>
-      </c>
-      <c r="F10" s="13" t="s">
+      <c r="E10" s="19">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="21">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="34">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="19">
         <v>3</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="34">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="19">
         <v>3</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="34">
-      <c r="A13" s="4" t="s">
+    <row r="13" spans="1:7" ht="51">
+      <c r="A13" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="19">
         <v>3</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="21">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="34">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="14">
-        <v>2</v>
-      </c>
-      <c r="F14" s="13" t="s">
+      <c r="E14" s="19">
+        <v>2</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="21">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="34">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="14">
-        <v>1</v>
-      </c>
-      <c r="F15" s="13" t="s">
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="34">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="14">
-        <v>1</v>
-      </c>
-      <c r="F16" s="13" t="s">
+      <c r="E16" s="19">
+        <v>1</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="51">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E17" s="14">
-        <v>2</v>
-      </c>
-      <c r="F17" s="13" t="s">
+      <c r="E17" s="19">
+        <v>2</v>
+      </c>
+      <c r="F17" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="21">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="40" customHeight="1">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:7" ht="19">
+      <c r="A18" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="14">
-        <v>2</v>
-      </c>
-      <c r="F18" s="13" t="s">
+      <c r="E18" s="19">
+        <v>2</v>
+      </c>
+      <c r="F18" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="21">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="34">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="14">
-        <v>1</v>
-      </c>
-      <c r="F19" s="13" t="s">
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="21">
         <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="34">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="14">
-        <v>1</v>
-      </c>
-      <c r="F20" s="13" t="s">
+      <c r="E20" s="19">
+        <v>1</v>
+      </c>
+      <c r="F20" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="34">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="14">
-        <v>2</v>
-      </c>
-      <c r="F21" s="13" t="s">
+      <c r="E21" s="19">
+        <v>2</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="21">
         <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="34">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="14">
-        <v>2</v>
-      </c>
-      <c r="F22" s="13" t="s">
+      <c r="E22" s="19">
+        <v>2</v>
+      </c>
+      <c r="F22" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G22" s="16"/>
+      <c r="G22" s="21"/>
     </row>
     <row r="23" spans="1:7" ht="30" customHeight="1">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E23" s="14">
-        <v>2</v>
-      </c>
-      <c r="F23" s="13" t="s">
+      <c r="E23" s="19">
+        <v>2</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G23" s="21">
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="51">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="19">
         <v>3</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="21">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="34">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="14">
-        <v>2</v>
-      </c>
-      <c r="F25" s="13" t="s">
+      <c r="E25" s="19">
+        <v>2</v>
+      </c>
+      <c r="F25" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="51">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="14">
-        <v>2</v>
-      </c>
-      <c r="F26" s="13" t="s">
+      <c r="E26" s="19">
+        <v>2</v>
+      </c>
+      <c r="F26" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="21">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="34">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E27" s="14">
-        <v>2</v>
-      </c>
-      <c r="F27" s="13" t="s">
+      <c r="E27" s="19">
+        <v>2</v>
+      </c>
+      <c r="F27" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="21">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="34">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="E28" s="14">
-        <v>2</v>
-      </c>
-      <c r="F28" s="13" t="s">
+      <c r="E28" s="19">
+        <v>2</v>
+      </c>
+      <c r="F28" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="34">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E29" s="14">
-        <v>2</v>
-      </c>
-      <c r="F29" s="13" t="s">
+      <c r="E29" s="19">
+        <v>2</v>
+      </c>
+      <c r="F29" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="21">
         <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="34">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="E30" s="14">
-        <v>2</v>
-      </c>
-      <c r="F30" s="13" t="s">
+      <c r="E30" s="19">
+        <v>2</v>
+      </c>
+      <c r="F30" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="21">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="34">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="14">
-        <v>1</v>
-      </c>
-      <c r="F31" s="13" t="s">
+      <c r="E31" s="19">
+        <v>1</v>
+      </c>
+      <c r="F31" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="16"/>
+      <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7" ht="34">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E32" s="14">
-        <v>1</v>
-      </c>
-      <c r="F32" s="13" t="s">
+      <c r="E32" s="19">
+        <v>1</v>
+      </c>
+      <c r="F32" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="16"/>
+      <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7" ht="27" customHeight="1">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="14">
-        <v>2</v>
-      </c>
-      <c r="F33" s="13" t="s">
+      <c r="E33" s="19">
+        <v>2</v>
+      </c>
+      <c r="F33" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G33" s="16">
-        <v>5</v>
+      <c r="G33" s="21">
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="51">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E34" s="14">
-        <v>2</v>
-      </c>
-      <c r="F34" s="13" t="s">
+      <c r="E34" s="19">
+        <v>2</v>
+      </c>
+      <c r="F34" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G34" s="16"/>
+      <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7" ht="31" customHeight="1">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="14">
-        <v>2</v>
-      </c>
-      <c r="F35" s="13" t="s">
+      <c r="E35" s="19">
+        <v>2</v>
+      </c>
+      <c r="F35" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="16"/>
+      <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7" ht="34">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E36" s="14">
-        <v>1</v>
-      </c>
-      <c r="F36" s="13" t="s">
+      <c r="E36" s="19">
+        <v>1</v>
+      </c>
+      <c r="F36" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="16"/>
+      <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7" ht="34">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E37" s="14">
-        <v>2</v>
-      </c>
-      <c r="F37" s="13" t="s">
+      <c r="E37" s="19">
+        <v>2</v>
+      </c>
+      <c r="F37" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="16"/>
+      <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7" ht="34">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="14">
-        <v>2</v>
-      </c>
-      <c r="F38" s="13" t="s">
+      <c r="E38" s="19">
+        <v>2</v>
+      </c>
+      <c r="F38" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="16"/>
+      <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7" ht="34">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="17">
-        <v>1</v>
-      </c>
-      <c r="F39" s="18" t="s">
+      <c r="E39" s="22">
+        <v>1</v>
+      </c>
+      <c r="F39" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="16"/>
-    </row>
-    <row r="40" spans="1:7" ht="29" customHeight="1">
-      <c r="A40" s="4" t="s">
+      <c r="G39" s="21"/>
+    </row>
+    <row r="40" spans="1:7" ht="34">
+      <c r="A40" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="17">
-        <v>2</v>
-      </c>
-      <c r="F40" s="18" t="s">
+      <c r="E40" s="22">
+        <v>2</v>
+      </c>
+      <c r="F40" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="G40" s="16"/>
+      <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7" ht="34">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="17">
-        <v>1</v>
-      </c>
-      <c r="F41" s="18" t="s">
+      <c r="E41" s="22">
+        <v>1</v>
+      </c>
+      <c r="F41" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="16"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7" ht="19">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="19">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="24">
         <f>SUM(G4:G41)</f>
-        <v>229</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -4084,7 +4085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77C292B9-70D1-3242-9411-3FA44F5F63F5}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -4132,63 +4133,63 @@
       <c r="R1" s="161"/>
     </row>
     <row r="2" spans="1:18" ht="43" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="157" t="s">
         <v>381</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="157" t="s">
         <v>382</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="C2" s="157" t="s">
         <v>383</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="D2" s="157" t="s">
         <v>384</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="E2" s="157" t="s">
         <v>385</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="157" t="s">
         <v>386</v>
       </c>
-      <c r="G2" s="80" t="s">
+      <c r="G2" s="157" t="s">
         <v>387</v>
       </c>
-      <c r="H2" s="80" t="s">
+      <c r="H2" s="157" t="s">
         <v>388</v>
       </c>
-      <c r="I2" s="80" t="s">
+      <c r="I2" s="157" t="s">
         <v>389</v>
       </c>
-      <c r="J2" s="80" t="s">
+      <c r="J2" s="157" t="s">
         <v>390</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="157" t="s">
         <v>391</v>
       </c>
-      <c r="L2" s="80" t="s">
+      <c r="L2" s="157" t="s">
         <v>392</v>
       </c>
-      <c r="M2" s="80" t="s">
+      <c r="M2" s="157" t="s">
         <v>393</v>
       </c>
-      <c r="N2" s="80" t="s">
+      <c r="N2" s="157" t="s">
         <v>394</v>
       </c>
-      <c r="O2" s="80" t="s">
+      <c r="O2" s="157" t="s">
         <v>395</v>
       </c>
-      <c r="P2" s="80" t="s">
+      <c r="P2" s="157" t="s">
         <v>396</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="Q2" s="157" t="s">
         <v>397</v>
       </c>
-      <c r="R2" s="80" t="s">
+      <c r="R2" s="157" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="52" customHeight="1">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="162" t="s">
         <v>399</v>
       </c>
       <c r="B3" s="161" t="s">
@@ -4212,7 +4213,7 @@
       <c r="R3" s="161"/>
     </row>
     <row r="4" spans="1:18" ht="44" customHeight="1">
-      <c r="A4" s="84" t="s">
+      <c r="A4" s="163" t="s">
         <v>401</v>
       </c>
       <c r="B4" s="161" t="s">
@@ -4236,234 +4237,234 @@
       <c r="R4" s="161"/>
     </row>
     <row r="5" spans="1:18" ht="25" customHeight="1">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="158" t="s">
         <v>403</v>
       </c>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="157" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="80" t="s">
+      <c r="C5" s="157" t="s">
         <v>181</v>
       </c>
-      <c r="D5" s="80">
+      <c r="D5" s="157">
         <v>8</v>
       </c>
-      <c r="E5" s="81">
-        <v>2</v>
-      </c>
-      <c r="F5" s="80">
-        <v>2</v>
-      </c>
-      <c r="G5" s="81">
-        <v>2</v>
-      </c>
-      <c r="H5" s="80">
-        <v>2</v>
-      </c>
-      <c r="I5" s="81"/>
-      <c r="J5" s="80"/>
-      <c r="K5" s="81"/>
-      <c r="L5" s="80"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="80"/>
+      <c r="E5" s="159">
+        <v>2</v>
+      </c>
+      <c r="F5" s="157">
+        <v>2</v>
+      </c>
+      <c r="G5" s="159">
+        <v>2</v>
+      </c>
+      <c r="H5" s="157">
+        <v>2</v>
+      </c>
+      <c r="I5" s="159"/>
+      <c r="J5" s="157"/>
+      <c r="K5" s="159"/>
+      <c r="L5" s="157"/>
+      <c r="M5" s="160"/>
+      <c r="N5" s="157"/>
+      <c r="O5" s="160"/>
+      <c r="P5" s="157"/>
+      <c r="Q5" s="160"/>
+      <c r="R5" s="157"/>
     </row>
     <row r="6" spans="1:18" ht="22" customHeight="1">
-      <c r="A6" s="162"/>
-      <c r="B6" s="80" t="s">
+      <c r="A6" s="158"/>
+      <c r="B6" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="157" t="s">
         <v>181</v>
       </c>
-      <c r="D6" s="80">
+      <c r="D6" s="157">
         <v>8</v>
       </c>
-      <c r="E6" s="81"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="81">
-        <v>2</v>
-      </c>
-      <c r="J6" s="80">
-        <v>2</v>
-      </c>
-      <c r="K6" s="81">
-        <v>2</v>
-      </c>
-      <c r="L6" s="80">
-        <v>2</v>
-      </c>
-      <c r="M6" s="82"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="82"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="82"/>
-      <c r="R6" s="80"/>
+      <c r="E6" s="159"/>
+      <c r="F6" s="157"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="157"/>
+      <c r="I6" s="159">
+        <v>2</v>
+      </c>
+      <c r="J6" s="157">
+        <v>2</v>
+      </c>
+      <c r="K6" s="159">
+        <v>2</v>
+      </c>
+      <c r="L6" s="157">
+        <v>2</v>
+      </c>
+      <c r="M6" s="160"/>
+      <c r="N6" s="157"/>
+      <c r="O6" s="160"/>
+      <c r="P6" s="157"/>
+      <c r="Q6" s="160"/>
+      <c r="R6" s="157"/>
     </row>
     <row r="7" spans="1:18" ht="21" customHeight="1">
-      <c r="A7" s="162"/>
-      <c r="B7" s="80" t="s">
+      <c r="A7" s="158"/>
+      <c r="B7" s="157" t="s">
         <v>404</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="157" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="80">
+      <c r="D7" s="157">
         <v>16</v>
       </c>
-      <c r="E7" s="81">
+      <c r="E7" s="159">
         <v>4</v>
       </c>
-      <c r="F7" s="80">
-        <v>2</v>
-      </c>
-      <c r="G7" s="81">
-        <v>2</v>
-      </c>
-      <c r="H7" s="80">
-        <v>2</v>
-      </c>
-      <c r="I7" s="81">
-        <v>2</v>
-      </c>
-      <c r="J7" s="80">
-        <v>2</v>
-      </c>
-      <c r="K7" s="81">
-        <v>2</v>
-      </c>
-      <c r="L7" s="80"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="82"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="82"/>
-      <c r="R7" s="80"/>
+      <c r="F7" s="157">
+        <v>2</v>
+      </c>
+      <c r="G7" s="159">
+        <v>2</v>
+      </c>
+      <c r="H7" s="157">
+        <v>2</v>
+      </c>
+      <c r="I7" s="159">
+        <v>2</v>
+      </c>
+      <c r="J7" s="157">
+        <v>2</v>
+      </c>
+      <c r="K7" s="159">
+        <v>2</v>
+      </c>
+      <c r="L7" s="157"/>
+      <c r="M7" s="160"/>
+      <c r="N7" s="157"/>
+      <c r="O7" s="160"/>
+      <c r="P7" s="157"/>
+      <c r="Q7" s="160"/>
+      <c r="R7" s="157"/>
     </row>
     <row r="8" spans="1:18" ht="22" customHeight="1">
-      <c r="A8" s="162"/>
-      <c r="B8" s="80" t="s">
+      <c r="A8" s="158"/>
+      <c r="B8" s="157" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="80" t="s">
+      <c r="C8" s="157" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="80">
+      <c r="D8" s="157">
         <v>16</v>
       </c>
-      <c r="E8" s="81"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="81"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="81"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="81"/>
-      <c r="L8" s="80">
+      <c r="E8" s="159"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="157"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="157"/>
+      <c r="K8" s="159"/>
+      <c r="L8" s="157">
         <v>4</v>
       </c>
-      <c r="M8" s="82">
+      <c r="M8" s="160">
         <v>4</v>
       </c>
-      <c r="N8" s="80">
-        <v>2</v>
-      </c>
-      <c r="O8" s="82">
-        <v>2</v>
-      </c>
-      <c r="P8" s="80">
-        <v>2</v>
-      </c>
-      <c r="Q8" s="82">
-        <v>2</v>
-      </c>
-      <c r="R8" s="80"/>
+      <c r="N8" s="157">
+        <v>2</v>
+      </c>
+      <c r="O8" s="160">
+        <v>2</v>
+      </c>
+      <c r="P8" s="157">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="160">
+        <v>2</v>
+      </c>
+      <c r="R8" s="157"/>
     </row>
     <row r="9" spans="1:18" ht="22" customHeight="1">
-      <c r="A9" s="162"/>
-      <c r="B9" s="80" t="s">
+      <c r="A9" s="158"/>
+      <c r="B9" s="157" t="s">
         <v>405</v>
       </c>
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="157" t="s">
         <v>158</v>
       </c>
-      <c r="D9" s="80">
+      <c r="D9" s="157">
         <v>16</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="159">
         <v>4</v>
       </c>
-      <c r="F9" s="80">
-        <v>2</v>
-      </c>
-      <c r="G9" s="81">
-        <v>2</v>
-      </c>
-      <c r="H9" s="80">
-        <v>2</v>
-      </c>
-      <c r="I9" s="81">
-        <v>2</v>
-      </c>
-      <c r="J9" s="80">
-        <v>2</v>
-      </c>
-      <c r="K9" s="81">
-        <v>2</v>
-      </c>
-      <c r="L9" s="80"/>
-      <c r="M9" s="82"/>
-      <c r="N9" s="80"/>
-      <c r="O9" s="82"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="82"/>
-      <c r="R9" s="80"/>
+      <c r="F9" s="157">
+        <v>2</v>
+      </c>
+      <c r="G9" s="159">
+        <v>2</v>
+      </c>
+      <c r="H9" s="157">
+        <v>2</v>
+      </c>
+      <c r="I9" s="159">
+        <v>2</v>
+      </c>
+      <c r="J9" s="157">
+        <v>2</v>
+      </c>
+      <c r="K9" s="159">
+        <v>2</v>
+      </c>
+      <c r="L9" s="157"/>
+      <c r="M9" s="160"/>
+      <c r="N9" s="157"/>
+      <c r="O9" s="160"/>
+      <c r="P9" s="157"/>
+      <c r="Q9" s="160"/>
+      <c r="R9" s="157"/>
     </row>
     <row r="10" spans="1:18" ht="25" customHeight="1">
-      <c r="A10" s="162"/>
-      <c r="B10" s="80" t="s">
+      <c r="A10" s="158"/>
+      <c r="B10" s="157" t="s">
         <v>406</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="C10" s="157" t="s">
         <v>169</v>
       </c>
-      <c r="D10" s="80">
+      <c r="D10" s="157">
         <v>16</v>
       </c>
-      <c r="E10" s="81">
-        <v>2</v>
-      </c>
-      <c r="F10" s="80">
-        <v>2</v>
-      </c>
-      <c r="G10" s="81">
-        <v>2</v>
-      </c>
-      <c r="H10" s="80">
-        <v>2</v>
-      </c>
-      <c r="I10" s="81">
-        <v>2</v>
-      </c>
-      <c r="J10" s="80">
-        <v>2</v>
-      </c>
-      <c r="K10" s="81">
-        <v>2</v>
-      </c>
-      <c r="L10" s="80">
-        <v>2</v>
-      </c>
-      <c r="M10" s="82"/>
-      <c r="N10" s="80"/>
-      <c r="O10" s="82"/>
-      <c r="P10" s="80"/>
-      <c r="Q10" s="82"/>
-      <c r="R10" s="80"/>
+      <c r="E10" s="159">
+        <v>2</v>
+      </c>
+      <c r="F10" s="157">
+        <v>2</v>
+      </c>
+      <c r="G10" s="159">
+        <v>2</v>
+      </c>
+      <c r="H10" s="157">
+        <v>2</v>
+      </c>
+      <c r="I10" s="159">
+        <v>2</v>
+      </c>
+      <c r="J10" s="157">
+        <v>2</v>
+      </c>
+      <c r="K10" s="159">
+        <v>2</v>
+      </c>
+      <c r="L10" s="157">
+        <v>2</v>
+      </c>
+      <c r="M10" s="160"/>
+      <c r="N10" s="157"/>
+      <c r="O10" s="160"/>
+      <c r="P10" s="157"/>
+      <c r="Q10" s="160"/>
+      <c r="R10" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4481,7 +4482,7 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A12"/>
+      <selection activeCell="D3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4499,743 +4500,748 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="17" customHeight="1">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="102" t="s">
+      <c r="B1" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="108" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="109"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="102" t="s">
+      <c r="C1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="102" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="102" t="s">
+      <c r="G1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="102" t="s">
+      <c r="I1" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="J1" s="102" t="s">
+      <c r="J1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="102" t="s">
+      <c r="K1" s="29" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="38">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="24" t="s">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="1:11" ht="60" customHeight="1">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="47" t="s">
         <v>107</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="13">
-        <v>2</v>
-      </c>
-      <c r="H3" s="25" t="s">
+      <c r="G3" s="18">
+        <v>2</v>
+      </c>
+      <c r="H3" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="13">
-        <v>1</v>
-      </c>
-      <c r="J3" s="25" t="s">
+      <c r="I3" s="18">
+        <v>1</v>
+      </c>
+      <c r="J3" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="K3" s="6"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" spans="1:11" ht="48" customHeight="1">
-      <c r="A4" s="97"/>
-      <c r="B4" s="94"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="5" t="s">
+      <c r="A4" s="48"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="13">
-        <v>2</v>
-      </c>
-      <c r="H4" s="25" t="s">
+      <c r="G4" s="18">
+        <v>2</v>
+      </c>
+      <c r="H4" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="13">
-        <v>1</v>
-      </c>
-      <c r="J4" s="25" t="s">
+      <c r="I4" s="18">
+        <v>1</v>
+      </c>
+      <c r="J4" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="K4" s="6"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" spans="1:11" ht="1" hidden="1" customHeight="1">
-      <c r="A5" s="97"/>
-      <c r="B5" s="94"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="5" t="s">
+      <c r="A5" s="48"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="18">
         <v>3</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="13">
-        <v>1</v>
-      </c>
-      <c r="J5" s="25" t="s">
+      <c r="I5" s="18">
+        <v>1</v>
+      </c>
+      <c r="J5" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="11"/>
     </row>
     <row r="6" spans="1:11" ht="85" hidden="1" customHeight="1">
-      <c r="A6" s="97"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="5" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="18">
         <v>3</v>
       </c>
-      <c r="H6" s="25" t="s">
+      <c r="H6" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="6"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="11"/>
     </row>
     <row r="7" spans="1:11" ht="38" hidden="1" customHeight="1">
-      <c r="A7" s="97"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="5" t="s">
+      <c r="A7" s="48"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="25" t="s">
+      <c r="F7" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="18">
         <v>3</v>
       </c>
-      <c r="H7" s="25" t="s">
+      <c r="H7" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I7" s="13">
-        <v>1</v>
-      </c>
-      <c r="J7" s="25" t="s">
+      <c r="I7" s="18">
+        <v>1</v>
+      </c>
+      <c r="J7" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="K7" s="6"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" spans="1:11" ht="119" hidden="1" customHeight="1">
-      <c r="A8" s="97"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="5" t="s">
+      <c r="A8" s="48"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="25" t="s">
+      <c r="F8" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="G8" s="13">
-        <v>1</v>
-      </c>
-      <c r="H8" s="25" t="s">
+      <c r="G8" s="18">
+        <v>1</v>
+      </c>
+      <c r="H8" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="13">
-        <v>1</v>
-      </c>
-      <c r="J8" s="25" t="s">
+      <c r="I8" s="18">
+        <v>1</v>
+      </c>
+      <c r="J8" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="K8" s="6"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:11" ht="42" customHeight="1">
-      <c r="A9" s="97"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="5" t="s">
+      <c r="A9" s="48"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="F9" s="25" t="s">
+      <c r="F9" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="18">
         <v>3</v>
       </c>
-      <c r="H9" s="25" t="s">
+      <c r="H9" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="13">
-        <v>1</v>
-      </c>
-      <c r="J9" s="25" t="s">
+      <c r="I9" s="18">
+        <v>1</v>
+      </c>
+      <c r="J9" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="K9" s="6"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:11" ht="40" customHeight="1">
-      <c r="A10" s="97"/>
-      <c r="B10" s="94"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="5" t="s">
+      <c r="A10" s="48"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="25" t="s">
+      <c r="F10" s="35" t="s">
         <v>117</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="18">
         <v>3</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="13">
-        <v>1</v>
-      </c>
-      <c r="J10" s="25" t="s">
+      <c r="I10" s="18">
+        <v>1</v>
+      </c>
+      <c r="J10" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="K10" s="6"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" ht="34">
-      <c r="A11" s="97"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="5" t="s">
+      <c r="A11" s="48"/>
+      <c r="B11" s="39"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="25" t="s">
+      <c r="F11" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="18">
         <v>3</v>
       </c>
-      <c r="H11" s="25" t="s">
+      <c r="H11" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="13">
-        <v>1</v>
-      </c>
-      <c r="J11" s="25" t="s">
+      <c r="I11" s="18">
+        <v>1</v>
+      </c>
+      <c r="J11" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="K11" s="6"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:11" ht="33" customHeight="1">
-      <c r="A12" s="98"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="5" t="s">
+      <c r="A12" s="49"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="25" t="s">
+      <c r="F12" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="G12" s="13">
-        <v>1</v>
-      </c>
-      <c r="H12" s="25" t="s">
+      <c r="G12" s="18">
+        <v>1</v>
+      </c>
+      <c r="H12" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="13">
-        <v>1</v>
-      </c>
-      <c r="J12" s="25" t="s">
+      <c r="I12" s="18">
+        <v>1</v>
+      </c>
+      <c r="J12" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="K12" s="6"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:11" ht="43" customHeight="1">
-      <c r="A13" s="104" t="s">
+      <c r="A13" s="50" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="G13" s="13">
-        <v>2</v>
-      </c>
-      <c r="H13" s="25" t="s">
+      <c r="G13" s="18">
+        <v>2</v>
+      </c>
+      <c r="H13" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I13" s="13">
-        <v>2</v>
-      </c>
-      <c r="J13" s="25" t="s">
+      <c r="I13" s="18">
+        <v>2</v>
+      </c>
+      <c r="J13" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="K13" s="6"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" spans="1:11" ht="34" customHeight="1">
-      <c r="A14" s="105"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="4" t="s">
+      <c r="A14" s="36"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="G14" s="13">
-        <v>2</v>
-      </c>
-      <c r="H14" s="25" t="s">
+      <c r="G14" s="18">
+        <v>2</v>
+      </c>
+      <c r="H14" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I14" s="13">
-        <v>2</v>
-      </c>
-      <c r="J14" s="25" t="s">
+      <c r="I14" s="18">
+        <v>2</v>
+      </c>
+      <c r="J14" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="K14" s="6"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1">
-      <c r="A15" s="105"/>
-      <c r="B15" s="94"/>
-      <c r="C15" s="4" t="s">
+      <c r="A15" s="36"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F15" s="25" t="s">
+      <c r="F15" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="G15" s="13">
-        <v>2</v>
-      </c>
-      <c r="H15" s="25" t="s">
+      <c r="G15" s="18">
+        <v>2</v>
+      </c>
+      <c r="H15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="13">
-        <v>2</v>
-      </c>
-      <c r="J15" s="25" t="s">
+      <c r="I15" s="18">
+        <v>2</v>
+      </c>
+      <c r="J15" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="K15" s="6"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" spans="1:11" ht="38" customHeight="1">
-      <c r="A16" s="105"/>
-      <c r="B16" s="94"/>
-      <c r="C16" s="4" t="s">
+      <c r="A16" s="36"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="25" t="s">
+      <c r="F16" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="13">
-        <v>1</v>
-      </c>
-      <c r="H16" s="25" t="s">
+      <c r="G16" s="18">
+        <v>1</v>
+      </c>
+      <c r="H16" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="13">
-        <v>2</v>
-      </c>
-      <c r="J16" s="25" t="s">
+      <c r="I16" s="18">
+        <v>2</v>
+      </c>
+      <c r="J16" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="K16" s="6"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" spans="1:11" ht="31" customHeight="1">
-      <c r="A17" s="105"/>
-      <c r="B17" s="94"/>
-      <c r="C17" s="4" t="s">
+      <c r="A17" s="36"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F17" s="25" t="s">
+      <c r="F17" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="13">
-        <v>1</v>
-      </c>
-      <c r="H17" s="25" t="s">
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="H17" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="13">
-        <v>2</v>
-      </c>
-      <c r="J17" s="25" t="s">
+      <c r="I17" s="18">
+        <v>2</v>
+      </c>
+      <c r="J17" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="K17" s="6"/>
+      <c r="K17" s="11"/>
     </row>
     <row r="18" spans="1:11" ht="30" customHeight="1">
-      <c r="A18" s="105"/>
-      <c r="B18" s="94"/>
-      <c r="C18" s="4" t="s">
+      <c r="A18" s="36"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F18" s="25" t="s">
+      <c r="F18" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="G18" s="13">
-        <v>2</v>
-      </c>
-      <c r="H18" s="25" t="s">
+      <c r="G18" s="18">
+        <v>2</v>
+      </c>
+      <c r="H18" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I18" s="13">
-        <v>2</v>
-      </c>
-      <c r="J18" s="25" t="s">
+      <c r="I18" s="18">
+        <v>2</v>
+      </c>
+      <c r="J18" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="K18" s="6"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" ht="34">
-      <c r="A19" s="106"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="4" t="s">
+      <c r="A19" s="37"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="18">
         <v>3</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="I19" s="13">
-        <v>2</v>
-      </c>
-      <c r="J19" s="13" t="s">
+      <c r="I19" s="18">
+        <v>2</v>
+      </c>
+      <c r="J19" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="K19" s="6"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" spans="1:11" ht="31" customHeight="1">
-      <c r="A20" s="90" t="s">
+      <c r="A20" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F20" s="25" t="s">
+      <c r="F20" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="18">
         <v>3</v>
       </c>
-      <c r="H20" s="25" t="s">
+      <c r="H20" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I20" s="13">
+      <c r="I20" s="18">
         <v>3</v>
       </c>
-      <c r="J20" s="25" t="s">
+      <c r="J20" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="K20" s="6"/>
+      <c r="K20" s="11"/>
     </row>
     <row r="21" spans="1:11" ht="34">
-      <c r="A21" s="91"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="4" t="s">
+      <c r="A21" s="53"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="25" t="s">
+      <c r="F21" s="35" t="s">
         <v>140</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="18">
         <v>3</v>
       </c>
-      <c r="H21" s="25" t="s">
+      <c r="H21" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="18">
         <v>3</v>
       </c>
-      <c r="J21" s="25" t="s">
+      <c r="J21" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="K21" s="6"/>
+      <c r="K21" s="11"/>
     </row>
     <row r="22" spans="1:11" ht="36" customHeight="1">
-      <c r="A22" s="91"/>
-      <c r="B22" s="92"/>
-      <c r="C22" s="6" t="s">
+      <c r="A22" s="53"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="35" t="s">
         <v>141</v>
       </c>
-      <c r="G22" s="13">
-        <v>2</v>
-      </c>
-      <c r="H22" s="25" t="s">
+      <c r="G22" s="18">
+        <v>2</v>
+      </c>
+      <c r="H22" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="13">
+      <c r="I22" s="18">
         <v>3</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="J22" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="K22" s="3"/>
+      <c r="K22" s="8"/>
     </row>
     <row r="23" spans="1:11" ht="34">
-      <c r="A23" s="91"/>
-      <c r="B23" s="92"/>
-      <c r="C23" s="6" t="s">
+      <c r="A23" s="53"/>
+      <c r="B23" s="52"/>
+      <c r="C23" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G23" s="13">
-        <v>2</v>
-      </c>
-      <c r="H23" s="13" t="s">
+      <c r="G23" s="18">
+        <v>2</v>
+      </c>
+      <c r="H23" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="13">
+      <c r="I23" s="18">
         <v>3</v>
       </c>
-      <c r="J23" s="25" t="s">
+      <c r="J23" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="K23" s="13"/>
+      <c r="K23" s="18"/>
     </row>
     <row r="24" spans="1:11" ht="28" customHeight="1">
-      <c r="A24" s="91"/>
-      <c r="B24" s="92"/>
-      <c r="C24" s="6" t="s">
+      <c r="A24" s="53"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D24" s="26" t="s">
+      <c r="D24" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="13">
-        <v>2</v>
-      </c>
-      <c r="H24" s="13" t="s">
+      <c r="G24" s="18">
+        <v>2</v>
+      </c>
+      <c r="H24" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="13">
+      <c r="I24" s="18">
         <v>3</v>
       </c>
-      <c r="J24" s="25" t="s">
+      <c r="J24" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="K24" s="13"/>
+      <c r="K24" s="18"/>
     </row>
     <row r="25" spans="1:11" ht="30" customHeight="1">
-      <c r="A25" s="91"/>
-      <c r="B25" s="92"/>
-      <c r="C25" s="6" t="s">
+      <c r="A25" s="53"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="40" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="G25" s="13">
-        <v>2</v>
-      </c>
-      <c r="H25" s="13" t="s">
+      <c r="G25" s="18">
+        <v>2</v>
+      </c>
+      <c r="H25" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="13">
+      <c r="I25" s="18">
         <v>3</v>
       </c>
-      <c r="J25" s="25" t="s">
+      <c r="J25" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="K25" s="6"/>
+      <c r="K25" s="11"/>
     </row>
     <row r="26" spans="1:11" ht="29" customHeight="1">
-      <c r="A26" s="91"/>
-      <c r="B26" s="92"/>
-      <c r="C26" s="6" t="s">
+      <c r="A26" s="53"/>
+      <c r="B26" s="52"/>
+      <c r="C26" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="D26" s="26" t="s">
+      <c r="D26" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="26" t="s">
+      <c r="E26" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="13">
-        <v>2</v>
-      </c>
-      <c r="H26" s="13" t="s">
+      <c r="G26" s="18">
+        <v>2</v>
+      </c>
+      <c r="H26" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="13">
+      <c r="I26" s="18">
         <v>3</v>
       </c>
-      <c r="J26" s="25" t="s">
+      <c r="J26" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="K26" s="6"/>
+      <c r="K26" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B20:B26"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="C3:C12"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
@@ -5247,11 +5253,6 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="C3:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5259,10 +5260,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBF6FF7-ECDB-3E47-AD5D-4630BAA04D27}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -5276,779 +5277,863 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="16" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="118"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="65"/>
     </row>
     <row r="2" spans="1:10" ht="16" customHeight="1">
-      <c r="A2" s="119"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="121"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="68"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="122"/>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="124"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="71"/>
     </row>
     <row r="4" spans="1:10" ht="57">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="72" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="72" t="s">
         <v>105</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="31" t="s">
+      <c r="F4" s="72" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="31" t="s">
+      <c r="G4" s="72" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="72" t="s">
         <v>147</v>
       </c>
-      <c r="J4" s="31" t="s">
+      <c r="J4" s="72" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="112"/>
-      <c r="H5" s="112"/>
-      <c r="I5" s="112"/>
-      <c r="J5" s="112"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="F6" s="13">
-        <v>1</v>
-      </c>
-      <c r="G6" s="25" t="s">
+      <c r="F6" s="18">
+        <v>1</v>
+      </c>
+      <c r="G6" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="18">
         <v>8</v>
       </c>
-      <c r="I6" s="25" t="s">
+      <c r="I6" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="J6" s="25" t="s">
+      <c r="J6" s="35" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="35" customHeight="1">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="25" t="s">
+      <c r="F7" s="18">
+        <v>1</v>
+      </c>
+      <c r="G7" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="29">
+      <c r="H7" s="57">
         <v>8</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="J7" s="25" t="s">
+      <c r="J7" s="35" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="33" customHeight="1">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:10" ht="34">
+      <c r="A8" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="25" t="s">
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
+      <c r="G8" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="18">
         <v>16</v>
       </c>
-      <c r="I8" s="25" t="s">
+      <c r="I8" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="J8" s="25" t="s">
+      <c r="J8" s="35" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="44" customHeight="1">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="56" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="F9" s="13">
-        <v>1</v>
-      </c>
-      <c r="G9" s="25" t="s">
+      <c r="F9" s="18">
+        <v>1</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="18">
         <v>16</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="J9" s="25" t="s">
+      <c r="J9" s="35" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="27" customHeight="1">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:10" ht="34">
+      <c r="A10" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="18" t="s">
         <v>234</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="25" t="s">
+      <c r="E10" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="F10" s="13">
-        <v>1</v>
-      </c>
-      <c r="G10" s="25" t="s">
+      <c r="F10" s="18">
+        <v>1</v>
+      </c>
+      <c r="G10" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="18">
         <v>16</v>
       </c>
-      <c r="I10" s="25" t="s">
+      <c r="I10" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="J10" s="25" t="s">
+      <c r="J10" s="35" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="45" customHeight="1">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="25" t="s">
+      <c r="E11" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="13">
-        <v>1</v>
-      </c>
-      <c r="G11" s="25" t="s">
+      <c r="F11" s="18">
+        <v>1</v>
+      </c>
+      <c r="G11" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="18">
         <v>16</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="J11" s="25" t="s">
+      <c r="J11" s="35" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="25"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="13">
+      <c r="A12" s="35"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="18">
         <f>SUM(H6:H11)</f>
         <v>80</v>
       </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-    </row>
-    <row r="13" spans="1:10" ht="30">
-      <c r="A13" s="113" t="s">
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="35"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="35"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="35"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+    </row>
+    <row r="16" spans="1:10" ht="30">
+      <c r="A16" s="60" t="s">
         <v>125</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
-    </row>
-    <row r="14" spans="1:10" ht="49" customHeight="1">
-      <c r="A14" s="25" t="s">
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="62"/>
+    </row>
+    <row r="17" spans="1:10" ht="49" customHeight="1">
+      <c r="A17" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B17" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C17" s="79" t="s">
         <v>236</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D17" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E17" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="13">
-        <v>2</v>
-      </c>
-      <c r="G14" s="25" t="s">
+      <c r="F17" s="18">
+        <v>2</v>
+      </c>
+      <c r="G17" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H17" s="18">
         <v>8</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I17" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="J14" s="13"/>
-    </row>
-    <row r="15" spans="1:10" ht="29" customHeight="1">
-      <c r="A15" s="25" t="s">
+      <c r="J17" s="18"/>
+    </row>
+    <row r="18" spans="1:10" ht="29" customHeight="1">
+      <c r="A18" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B18" s="56" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C18" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D18" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="25" t="s">
+      <c r="E18" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="13">
-        <v>2</v>
-      </c>
-      <c r="G15" s="25" t="s">
+      <c r="F18" s="18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H18" s="18">
         <v>8</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I18" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="J15" s="13"/>
-    </row>
-    <row r="16" spans="1:10" ht="31" customHeight="1">
-      <c r="A16" s="25" t="s">
+      <c r="J18" s="18"/>
+    </row>
+    <row r="19" spans="1:10" ht="31" customHeight="1">
+      <c r="A19" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B19" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C19" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D19" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E19" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="13">
-        <v>2</v>
-      </c>
-      <c r="G16" s="25" t="s">
+      <c r="F19" s="18">
+        <v>2</v>
+      </c>
+      <c r="G19" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H19" s="18">
         <v>8</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I19" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="J16" s="13"/>
-    </row>
-    <row r="17" spans="1:10" ht="43" customHeight="1">
-      <c r="A17" s="25" t="s">
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="1:10" ht="43" customHeight="1">
+      <c r="A20" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B20" s="56" t="s">
         <v>166</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C20" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D20" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E20" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="13">
-        <v>2</v>
-      </c>
-      <c r="G17" s="25" t="s">
+      <c r="F20" s="18">
+        <v>2</v>
+      </c>
+      <c r="G20" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H20" s="18">
         <v>16</v>
       </c>
-      <c r="I17" s="25" t="s">
+      <c r="I20" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="J17" s="13"/>
-    </row>
-    <row r="18" spans="1:10" ht="27" customHeight="1">
-      <c r="A18" s="25" t="s">
+      <c r="J20" s="18"/>
+    </row>
+    <row r="21" spans="1:10" ht="27" customHeight="1">
+      <c r="A21" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B21" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C21" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D21" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E21" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="13">
-        <v>2</v>
-      </c>
-      <c r="G18" s="25" t="s">
+      <c r="F21" s="18">
+        <v>2</v>
+      </c>
+      <c r="G21" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H21" s="18">
         <v>8</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I21" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="J18" s="13"/>
-    </row>
-    <row r="19" spans="1:10" ht="17">
-      <c r="A19" s="25" t="s">
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:10" ht="34">
+      <c r="A22" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="B19" s="28" t="s">
+      <c r="B22" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C22" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D22" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E22" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="13">
-        <v>2</v>
-      </c>
-      <c r="G19" s="25" t="s">
+      <c r="F22" s="18">
+        <v>2</v>
+      </c>
+      <c r="G22" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H22" s="18">
         <v>8</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I22" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="J19" s="13"/>
-    </row>
-    <row r="20" spans="1:10" ht="31" customHeight="1">
-      <c r="A20" s="25" t="s">
+      <c r="J22" s="18"/>
+    </row>
+    <row r="23" spans="1:10" ht="23" customHeight="1">
+      <c r="A23" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B23" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C23" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D23" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="25" t="s">
+      <c r="E23" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="F20" s="13">
-        <v>2</v>
-      </c>
-      <c r="G20" s="25" t="s">
+      <c r="F23" s="18">
+        <v>2</v>
+      </c>
+      <c r="G23" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H23" s="18">
         <v>24</v>
       </c>
-      <c r="I20" s="25" t="s">
+      <c r="I23" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="J20" s="13"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="25"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="13">
-        <f>SUM(H14:H20)</f>
+      <c r="J23" s="18"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="35"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="18">
+        <f>SUM(H17:H23)</f>
         <v>80</v>
       </c>
-      <c r="I21" s="25"/>
-      <c r="J21" s="13"/>
-    </row>
-    <row r="22" spans="1:10" ht="30">
-      <c r="A22" s="113" t="s">
+      <c r="I24" s="35"/>
+      <c r="J24" s="18"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="18"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="18"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="18"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="18"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+    </row>
+    <row r="29" spans="1:10" ht="30">
+      <c r="A29" s="60" t="s">
         <v>134</v>
       </c>
-      <c r="B22" s="114"/>
-      <c r="C22" s="114"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="114"/>
-      <c r="J22" s="115"/>
-    </row>
-    <row r="23" spans="1:10" ht="28" customHeight="1">
-      <c r="A23" s="25" t="s">
+      <c r="B29" s="61"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="61"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
+      <c r="J29" s="62"/>
+    </row>
+    <row r="30" spans="1:10" ht="28" customHeight="1">
+      <c r="A30" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B30" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C30" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D30" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="25" t="s">
+      <c r="E30" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F30" s="18">
         <v>3</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G30" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H30" s="18">
         <v>26</v>
       </c>
-      <c r="I23" s="25" t="s">
+      <c r="I30" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="J23" s="13"/>
-    </row>
-    <row r="24" spans="1:10" ht="31" customHeight="1">
-      <c r="A24" s="25" t="s">
+      <c r="J30" s="18"/>
+    </row>
+    <row r="31" spans="1:10" ht="31" customHeight="1">
+      <c r="A31" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B31" s="56" t="s">
         <v>174</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C31" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D31" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E31" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F31" s="18">
         <v>3</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G31" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H31" s="18">
         <v>16</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="I31" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="J24" s="13"/>
-    </row>
-    <row r="25" spans="1:10" ht="41" customHeight="1">
-      <c r="A25" s="25" t="s">
+      <c r="J31" s="18"/>
+    </row>
+    <row r="32" spans="1:10" ht="41" customHeight="1">
+      <c r="A32" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B32" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C32" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D32" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E32" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F32" s="18">
         <v>3</v>
       </c>
-      <c r="G25" s="25" t="s">
+      <c r="G32" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H32" s="18">
         <v>10</v>
       </c>
-      <c r="I25" s="25" t="s">
+      <c r="I32" s="35" t="s">
         <v>158</v>
       </c>
-      <c r="J25" s="13"/>
-    </row>
-    <row r="26" spans="1:10" ht="28" customHeight="1">
-      <c r="A26" s="25" t="s">
+      <c r="J32" s="18"/>
+    </row>
+    <row r="33" spans="1:10" ht="28" customHeight="1">
+      <c r="A33" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="B26" s="30" t="s">
+      <c r="B33" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C33" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D33" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E33" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F33" s="18">
         <v>3</v>
       </c>
-      <c r="G26" s="25" t="s">
+      <c r="G33" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H33" s="18">
         <v>6</v>
       </c>
-      <c r="I26" s="13" t="s">
+      <c r="I33" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="J26" s="13"/>
-    </row>
-    <row r="27" spans="1:10" ht="25" customHeight="1">
-      <c r="A27" s="25" t="s">
+      <c r="J33" s="18"/>
+    </row>
+    <row r="34" spans="1:10" ht="25" customHeight="1">
+      <c r="A34" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B34" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C34" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D34" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E34" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F34" s="18">
         <v>3</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G34" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H34" s="18">
         <v>10</v>
       </c>
-      <c r="I27" s="13" t="s">
+      <c r="I34" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="J27" s="13"/>
-    </row>
-    <row r="28" spans="1:10" ht="17">
-      <c r="A28" s="25" t="s">
+      <c r="J34" s="18"/>
+    </row>
+    <row r="35" spans="1:10" ht="34">
+      <c r="A35" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="B28" s="30" t="s">
+      <c r="B35" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C35" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D35" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="25" t="s">
+      <c r="E35" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F35" s="18">
         <v>3</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G35" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H35" s="18">
         <v>6</v>
       </c>
-      <c r="I28" s="13" t="s">
+      <c r="I35" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="J28" s="13"/>
-    </row>
-    <row r="29" spans="1:10" ht="31" customHeight="1">
-      <c r="A29" s="13" t="s">
+      <c r="J35" s="18"/>
+    </row>
+    <row r="36" spans="1:10" ht="31" customHeight="1">
+      <c r="A36" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="30" t="s">
+      <c r="B36" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C36" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D36" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="E29" s="25" t="s">
+      <c r="E36" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F36" s="18">
         <v>3</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G36" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H36" s="18">
         <v>6</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I36" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="J29" s="13"/>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="13"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13">
-        <f>SUM(H23:H29)</f>
+      <c r="J36" s="18"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="18"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18">
+        <f>SUM(H30:H36)</f>
         <v>80</v>
       </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A16:J16"/>
+    <mergeCell ref="A29:J29"/>
     <mergeCell ref="A1:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6060,14 +6145,14 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="56.83203125" customWidth="1"/>
-    <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
     <col min="4" max="4" width="23.6640625" customWidth="1"/>
     <col min="5" max="5" width="28.83203125" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" customWidth="1"/>
@@ -6076,326 +6161,326 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29">
-      <c r="A1" s="125" t="s">
+      <c r="A1" s="73" t="s">
         <v>183</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="127"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="75"/>
     </row>
     <row r="2" spans="1:8" ht="44">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="76" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="76" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="76" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="76" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="76" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="77" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="116" customHeight="1">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="78" t="s">
         <v>192</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="80" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="G3" s="38">
+      <c r="G3" s="82">
         <v>44360</v>
       </c>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="80" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="68" customHeight="1">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="78" t="s">
         <v>197</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="80" t="s">
         <v>198</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="81" t="s">
         <v>199</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="82">
         <v>44360</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="80" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="51" customHeight="1">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="78" t="s">
         <v>201</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="80" t="s">
         <v>202</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="82">
         <v>44360</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="80" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="238">
-      <c r="A6" s="34" t="s">
+    <row r="6" spans="1:8" ht="255">
+      <c r="A6" s="78" t="s">
         <v>204</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="82">
         <v>44360</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="80" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="221">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:8" ht="255">
+      <c r="A7" s="78" t="s">
         <v>207</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="80" t="s">
         <v>208</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="82">
         <v>44360</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="80" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="51">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="78" t="s">
         <v>210</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="80" t="s">
         <v>211</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="82">
         <v>44360</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="80" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="51">
-      <c r="A9" s="34" t="s">
+    <row r="9" spans="1:8" ht="68">
+      <c r="A9" s="78" t="s">
         <v>213</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="80" t="s">
         <v>214</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="81" t="s">
         <v>199</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="82">
         <v>44360</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="80" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="68">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="78" t="s">
         <v>216</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="80" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="82">
         <v>44360</v>
       </c>
-      <c r="H10" s="36" t="s">
+      <c r="H10" s="80" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="153">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="78" t="s">
         <v>220</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="80" t="s">
         <v>221</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="G11" s="38">
+      <c r="G11" s="82">
         <v>44360</v>
       </c>
-      <c r="H11" s="36" t="s">
+      <c r="H11" s="80" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="136">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="78" t="s">
         <v>223</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="80" t="s">
         <v>224</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="82">
         <v>44360</v>
       </c>
-      <c r="H12" s="36" t="s">
+      <c r="H12" s="80" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="54" customHeight="1">
-      <c r="A13" s="34" t="s">
+    <row r="13" spans="1:8" ht="34">
+      <c r="A13" s="78" t="s">
         <v>226</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="80" t="s">
         <v>227</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="81" t="s">
         <v>194</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="81" t="s">
         <v>195</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="G13" s="38">
+      <c r="G13" s="82">
         <v>44360</v>
       </c>
-      <c r="H13" s="36" t="s">
+      <c r="H13" s="80" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6411,8 +6496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F036AE-8DB3-4744-A6B7-343235107C0D}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6428,338 +6513,338 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" thickBot="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="83" t="s">
         <v>250</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="44"/>
-    </row>
-    <row r="2" spans="1:8" ht="34">
-      <c r="A2" s="52" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="88"/>
+    </row>
+    <row r="2" spans="1:8" ht="51">
+      <c r="A2" s="98" t="s">
         <v>184</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="99" t="s">
         <v>185</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="100" t="s">
         <v>186</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="100" t="s">
         <v>187</v>
       </c>
-      <c r="E2" s="54" t="s">
+      <c r="E2" s="100" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="100" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="G2" s="101" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="101" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="39" customHeight="1">
-      <c r="A3" s="128" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="89" t="s">
         <v>251</v>
       </c>
-      <c r="B3" s="129"/>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="129"/>
-      <c r="G3" s="129"/>
-      <c r="H3" s="129"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
     </row>
     <row r="4" spans="1:8" ht="57">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="91" t="s">
         <v>252</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="92" t="s">
         <v>253</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="92" t="s">
         <v>254</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="92" t="s">
         <v>255</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="93" t="s">
         <v>256</v>
       </c>
-      <c r="F4" s="47" t="s">
+      <c r="F4" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="G4" s="48">
+      <c r="G4" s="94">
         <v>44360</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="95" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="38">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="91" t="s">
         <v>258</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="92" t="s">
         <v>259</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="92" t="s">
         <v>260</v>
       </c>
-      <c r="D5" s="46" t="s">
+      <c r="D5" s="92" t="s">
         <v>261</v>
       </c>
-      <c r="E5" s="47" t="s">
+      <c r="E5" s="93" t="s">
         <v>256</v>
       </c>
-      <c r="F5" s="47" t="s">
+      <c r="F5" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="G5" s="48">
+      <c r="G5" s="94">
         <v>44360</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="95" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="95">
-      <c r="A6" s="45" t="s">
+    <row r="6" spans="1:8" ht="76">
+      <c r="A6" s="91" t="s">
         <v>263</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="92" t="s">
         <v>264</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="92" t="s">
         <v>265</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="92" t="s">
         <v>266</v>
       </c>
-      <c r="E6" s="47" t="s">
+      <c r="E6" s="93" t="s">
         <v>256</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="94">
         <v>44360</v>
       </c>
-      <c r="H6" s="49" t="s">
+      <c r="H6" s="95" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="76">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="91" t="s">
         <v>268</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="92" t="s">
         <v>269</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="92" t="s">
         <v>270</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="92" t="s">
         <v>271</v>
       </c>
-      <c r="E7" s="47" t="s">
+      <c r="E7" s="93" t="s">
         <v>256</v>
       </c>
-      <c r="F7" s="47" t="s">
+      <c r="F7" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="G7" s="48">
+      <c r="G7" s="94">
         <v>44360</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="95" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="76">
-      <c r="A8" s="50" t="s">
+    <row r="8" spans="1:8" ht="95">
+      <c r="A8" s="96" t="s">
         <v>273</v>
       </c>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="92" t="s">
         <v>274</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="92" t="s">
         <v>276</v>
       </c>
-      <c r="E8" s="47" t="s">
+      <c r="E8" s="93" t="s">
         <v>256</v>
       </c>
-      <c r="F8" s="47" t="s">
+      <c r="F8" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="G8" s="48">
+      <c r="G8" s="94">
         <v>44360</v>
       </c>
-      <c r="H8" s="46" t="s">
+      <c r="H8" s="92" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="38">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="96" t="s">
         <v>278</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="92" t="s">
         <v>279</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="92" t="s">
         <v>280</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="92" t="s">
         <v>281</v>
       </c>
-      <c r="E9" s="47" t="s">
+      <c r="E9" s="93" t="s">
         <v>256</v>
       </c>
-      <c r="F9" s="47" t="s">
+      <c r="F9" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="G9" s="48">
+      <c r="G9" s="94">
         <v>44360</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="92" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="38">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="96" t="s">
         <v>283</v>
       </c>
-      <c r="B10" s="46" t="s">
+      <c r="B10" s="92" t="s">
         <v>284</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="92" t="s">
         <v>285</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="92" t="s">
         <v>286</v>
       </c>
-      <c r="E10" s="47" t="s">
+      <c r="E10" s="93" t="s">
         <v>256</v>
       </c>
-      <c r="F10" s="47" t="s">
+      <c r="F10" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="G10" s="48">
+      <c r="G10" s="94">
         <v>44360</v>
       </c>
-      <c r="H10" s="46" t="s">
+      <c r="H10" s="92" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="34">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="96" t="s">
         <v>288</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="97" t="s">
         <v>289</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="97" t="s">
         <v>290</v>
       </c>
-      <c r="D11" s="51" t="s">
+      <c r="D11" s="97" t="s">
         <v>291</v>
       </c>
-      <c r="E11" s="47" t="s">
+      <c r="E11" s="93" t="s">
         <v>256</v>
       </c>
-      <c r="F11" s="47" t="s">
+      <c r="F11" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="G11" s="48">
+      <c r="G11" s="94">
         <v>44360</v>
       </c>
-      <c r="H11" s="51" t="s">
+      <c r="H11" s="97" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="57">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="96" t="s">
         <v>293</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="97" t="s">
         <v>294</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="97" t="s">
         <v>295</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="97" t="s">
         <v>296</v>
       </c>
-      <c r="E12" s="47" t="s">
+      <c r="E12" s="93" t="s">
         <v>256</v>
       </c>
-      <c r="F12" s="47" t="s">
+      <c r="F12" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="G12" s="48">
+      <c r="G12" s="94">
         <v>44360</v>
       </c>
-      <c r="H12" s="51" t="s">
+      <c r="H12" s="97" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="57">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="96" t="s">
         <v>298</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="97" t="s">
         <v>299</v>
       </c>
-      <c r="C13" s="51" t="s">
+      <c r="C13" s="97" t="s">
         <v>300</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="97" t="s">
         <v>301</v>
       </c>
-      <c r="E13" s="47" t="s">
+      <c r="E13" s="93" t="s">
         <v>256</v>
       </c>
-      <c r="F13" s="47" t="s">
+      <c r="F13" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="G13" s="48">
+      <c r="G13" s="94">
         <v>44360</v>
       </c>
-      <c r="H13" s="51" t="s">
+      <c r="H13" s="97" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="57">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="96" t="s">
         <v>303</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="97" t="s">
         <v>304</v>
       </c>
-      <c r="C14" s="51" t="s">
+      <c r="C14" s="97" t="s">
         <v>305</v>
       </c>
-      <c r="D14" s="51" t="s">
+      <c r="D14" s="97" t="s">
         <v>306</v>
       </c>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="93" t="s">
         <v>256</v>
       </c>
-      <c r="F14" s="47" t="s">
+      <c r="F14" s="93" t="s">
         <v>150</v>
       </c>
-      <c r="G14" s="48">
+      <c r="G14" s="94">
         <v>44360</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="H14" s="97" t="s">
         <v>307</v>
       </c>
     </row>
@@ -6775,371 +6860,370 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63608082-4233-D945-B510-79B11E10B189}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="52.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="14.5" customWidth="1"/>
     <col min="5" max="5" width="14.33203125" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="53.1640625" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="10" width="62.5" customWidth="1"/>
     <col min="11" max="11" width="34.5" customWidth="1"/>
     <col min="12" max="12" width="32.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="55" thickBot="1">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:12" ht="109" thickBot="1">
+      <c r="A1" s="102" t="s">
         <v>308</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="103" t="s">
         <v>309</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="103" t="s">
         <v>310</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="103" t="s">
         <v>311</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="103" t="s">
         <v>312</v>
       </c>
-      <c r="G1" s="57" t="s">
+      <c r="G1" s="103" t="s">
         <v>313</v>
       </c>
-      <c r="H1" s="57" t="s">
+      <c r="H1" s="103" t="s">
         <v>314</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="103" t="s">
         <v>315</v>
       </c>
-      <c r="J1" s="57" t="s">
+      <c r="J1" s="103" t="s">
         <v>316</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="103" t="s">
         <v>317</v>
       </c>
-      <c r="L1" s="57" t="s">
+      <c r="L1" s="103" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="24">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="104" t="s">
         <v>319</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
-      <c r="K2" s="131"/>
-      <c r="L2" s="132"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="105"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="105"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="106"/>
     </row>
     <row r="3" spans="1:12" ht="76">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="110" t="s">
         <v>320</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="111" t="s">
         <v>321</v>
       </c>
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="112" t="s">
         <v>150</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="112" t="s">
         <v>322</v>
       </c>
-      <c r="E3" s="63">
-        <v>1</v>
-      </c>
-      <c r="F3" s="63">
-        <v>1</v>
-      </c>
-      <c r="G3" s="63" t="s">
+      <c r="E3" s="112">
+        <v>1</v>
+      </c>
+      <c r="F3" s="112">
+        <v>1</v>
+      </c>
+      <c r="G3" s="112" t="s">
         <v>323</v>
       </c>
-      <c r="H3" s="63" t="s">
+      <c r="H3" s="112" t="s">
         <v>150</v>
       </c>
-      <c r="I3" s="64">
+      <c r="I3" s="113">
         <v>44360</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="111" t="s">
         <v>324</v>
       </c>
-      <c r="K3" s="63" t="s">
+      <c r="K3" s="112" t="s">
         <v>325</v>
       </c>
-      <c r="L3" s="63" t="s">
+      <c r="L3" s="112" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="23">
-      <c r="A4" s="133" t="s">
+      <c r="A4" s="114" t="s">
         <v>326</v>
       </c>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="134"/>
-      <c r="I4" s="134"/>
-      <c r="J4" s="134"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="135"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="116"/>
     </row>
     <row r="5" spans="1:12" ht="76">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="117" t="s">
         <v>327</v>
       </c>
-      <c r="B5" s="66" t="s">
+      <c r="B5" s="118" t="s">
         <v>328</v>
       </c>
-      <c r="C5" s="62" t="s">
+      <c r="C5" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D5" s="111" t="s">
         <v>322</v>
       </c>
-      <c r="E5" s="62">
+      <c r="E5" s="111">
         <v>3</v>
       </c>
-      <c r="F5" s="62">
-        <v>1</v>
-      </c>
-      <c r="G5" s="62" t="s">
+      <c r="F5" s="111">
+        <v>3</v>
+      </c>
+      <c r="G5" s="111" t="s">
         <v>329</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="I5" s="67">
+      <c r="I5" s="119">
         <v>44360</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="111" t="s">
         <v>330</v>
       </c>
-      <c r="K5" s="62" t="s">
+      <c r="K5" s="111" t="s">
         <v>331</v>
       </c>
-      <c r="L5" s="62" t="s">
+      <c r="L5" s="111" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="76">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="117" t="s">
         <v>332</v>
       </c>
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="118" t="s">
         <v>333</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="111" t="s">
         <v>322</v>
       </c>
-      <c r="E6" s="62">
+      <c r="E6" s="111">
         <v>3</v>
       </c>
-      <c r="F6" s="62">
-        <v>1</v>
-      </c>
-      <c r="G6" s="62" t="s">
+      <c r="F6" s="111">
+        <v>3</v>
+      </c>
+      <c r="G6" s="111" t="s">
         <v>334</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="I6" s="67">
+      <c r="I6" s="119">
         <v>44360</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="111" t="s">
         <v>335</v>
       </c>
-      <c r="K6" s="62" t="s">
+      <c r="K6" s="111" t="s">
         <v>336</v>
       </c>
-      <c r="L6" s="62" t="s">
+      <c r="L6" s="111" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="20">
-      <c r="A7" s="65"/>
-      <c r="B7" s="68"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="120"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
     </row>
     <row r="8" spans="1:12" ht="20">
-      <c r="A8" s="65"/>
-      <c r="B8" s="68"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="63"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="63"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
     </row>
     <row r="9" spans="1:12" ht="23">
-      <c r="A9" s="133" t="s">
+      <c r="A9" s="114" t="s">
         <v>337</v>
       </c>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="134"/>
-      <c r="L9" s="135"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="116"/>
     </row>
     <row r="10" spans="1:12" ht="76">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="110" t="s">
         <v>338</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="111" t="s">
         <v>339</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="111" t="s">
         <v>322</v>
       </c>
-      <c r="E10" s="62">
+      <c r="E10" s="111">
         <v>3</v>
       </c>
-      <c r="F10" s="62">
-        <v>1</v>
-      </c>
-      <c r="G10" s="62" t="s">
+      <c r="F10" s="111">
+        <v>3</v>
+      </c>
+      <c r="G10" s="111" t="s">
         <v>340</v>
       </c>
-      <c r="H10" s="62" t="s">
+      <c r="H10" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="I10" s="67">
+      <c r="I10" s="119">
         <v>44360</v>
       </c>
-      <c r="J10" s="62" t="s">
+      <c r="J10" s="111" t="s">
         <v>341</v>
       </c>
-      <c r="K10" s="62" t="s">
+      <c r="K10" s="111" t="s">
         <v>342</v>
       </c>
-      <c r="L10" s="62" t="s">
+      <c r="L10" s="111" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="57">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="110" t="s">
         <v>343</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="111" t="s">
         <v>344</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="D11" s="62" t="s">
+      <c r="D11" s="111" t="s">
         <v>322</v>
       </c>
-      <c r="E11" s="62">
-        <v>2</v>
-      </c>
-      <c r="F11" s="62">
-        <v>1</v>
-      </c>
-      <c r="G11" s="62" t="s">
+      <c r="E11" s="111">
+        <v>2</v>
+      </c>
+      <c r="F11" s="111">
+        <v>3</v>
+      </c>
+      <c r="G11" s="111" t="s">
         <v>345</v>
       </c>
-      <c r="H11" s="62" t="s">
+      <c r="H11" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="I11" s="67">
+      <c r="I11" s="119">
         <v>44360</v>
       </c>
-      <c r="J11" s="62" t="s">
+      <c r="J11" s="111" t="s">
         <v>346</v>
       </c>
-      <c r="K11" s="62" t="s">
+      <c r="K11" s="111" t="s">
         <v>347</v>
       </c>
-      <c r="L11" s="62" t="s">
+      <c r="L11" s="111" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="21">
-      <c r="A12" s="58"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="59"/>
-      <c r="K12" s="59"/>
-      <c r="L12" s="59"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="108"/>
+      <c r="H12" s="108"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="108"/>
+      <c r="L12" s="108"/>
     </row>
     <row r="13" spans="1:12" ht="21">
-      <c r="A13" s="58"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="59"/>
-      <c r="L13" s="59"/>
+      <c r="A13" s="107"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="108"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="108"/>
+      <c r="L13" s="108"/>
     </row>
     <row r="14" spans="1:12" ht="21">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="59"/>
-      <c r="K14" s="59"/>
-      <c r="L14" s="59"/>
+      <c r="A14" s="107"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="108"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="108"/>
+      <c r="L14" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7156,7 +7240,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7172,242 +7256,242 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="24" thickBot="1">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="121" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
-      <c r="E1" s="136"/>
-      <c r="F1" s="136"/>
-      <c r="G1" s="136"/>
-      <c r="H1" s="136"/>
-      <c r="I1" s="136"/>
-      <c r="J1" s="136"/>
-      <c r="K1" s="136"/>
-    </row>
-    <row r="2" spans="1:11" ht="63">
-      <c r="A2" s="74" t="s">
+      <c r="B1" s="121"/>
+      <c r="C1" s="121"/>
+      <c r="D1" s="121"/>
+      <c r="E1" s="121"/>
+      <c r="F1" s="121"/>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
+      <c r="I1" s="121"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+    </row>
+    <row r="2" spans="1:11" ht="42">
+      <c r="A2" s="127" t="s">
         <v>308</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="128" t="s">
         <v>309</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="129" t="s">
         <v>310</v>
       </c>
-      <c r="D2" s="76" t="s">
+      <c r="D2" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="76" t="s">
+      <c r="E2" s="129" t="s">
         <v>311</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="129" t="s">
         <v>312</v>
       </c>
-      <c r="G2" s="76" t="s">
+      <c r="G2" s="129" t="s">
         <v>313</v>
       </c>
-      <c r="H2" s="76" t="s">
+      <c r="H2" s="129" t="s">
         <v>314</v>
       </c>
-      <c r="I2" s="76" t="s">
+      <c r="I2" s="129" t="s">
         <v>315</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="J2" s="129" t="s">
         <v>316</v>
       </c>
-      <c r="K2" s="76" t="s">
+      <c r="K2" s="129" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="23">
-      <c r="A3" s="137" t="s">
+      <c r="A3" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="130"/>
     </row>
     <row r="4" spans="1:11" ht="84">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="122" t="s">
         <v>349</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="123" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="70" t="s">
+      <c r="C4" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="70" t="s">
+      <c r="D4" s="123" t="s">
         <v>322</v>
       </c>
-      <c r="E4" s="70">
-        <v>1</v>
-      </c>
-      <c r="F4" s="70">
-        <v>1</v>
-      </c>
-      <c r="G4" s="70" t="s">
+      <c r="E4" s="123">
+        <v>1</v>
+      </c>
+      <c r="F4" s="123">
+        <v>1</v>
+      </c>
+      <c r="G4" s="123" t="s">
         <v>323</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="I4" s="71">
+      <c r="I4" s="124">
         <v>44349</v>
       </c>
-      <c r="J4" s="70" t="s">
+      <c r="J4" s="123" t="s">
         <v>350</v>
       </c>
-      <c r="K4" s="72" t="s">
+      <c r="K4" s="125" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="168">
-      <c r="A5" s="69" t="s">
+    <row r="5" spans="1:11" ht="210">
+      <c r="A5" s="122" t="s">
         <v>352</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="123" t="s">
         <v>264</v>
       </c>
-      <c r="C5" s="70" t="s">
+      <c r="C5" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="123" t="s">
         <v>322</v>
       </c>
-      <c r="E5" s="70">
+      <c r="E5" s="123">
         <v>3</v>
       </c>
-      <c r="F5" s="70">
+      <c r="F5" s="123">
         <v>3</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="123" t="s">
         <v>329</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="I5" s="71">
+      <c r="I5" s="124">
         <v>44351</v>
       </c>
-      <c r="J5" s="70" t="s">
+      <c r="J5" s="123" t="s">
         <v>353</v>
       </c>
-      <c r="K5" s="73" t="s">
+      <c r="K5" s="126" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="126">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="122" t="s">
         <v>355</v>
       </c>
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="123" t="s">
         <v>274</v>
       </c>
-      <c r="C6" s="70" t="s">
+      <c r="C6" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="D6" s="70" t="s">
+      <c r="D6" s="123" t="s">
         <v>322</v>
       </c>
-      <c r="E6" s="70">
+      <c r="E6" s="123">
         <v>3</v>
       </c>
-      <c r="F6" s="70">
+      <c r="F6" s="123">
         <v>3</v>
       </c>
-      <c r="G6" s="70" t="s">
+      <c r="G6" s="123" t="s">
         <v>334</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="I6" s="71">
+      <c r="I6" s="124">
         <v>44351</v>
       </c>
-      <c r="J6" s="70" t="s">
+      <c r="J6" s="123" t="s">
         <v>356</v>
       </c>
-      <c r="K6" s="73" t="s">
+      <c r="K6" s="126" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="84">
-      <c r="A7" s="69" t="s">
+    <row r="7" spans="1:11" ht="147">
+      <c r="A7" s="122" t="s">
         <v>358</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="123" t="s">
         <v>359</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="123" t="s">
         <v>322</v>
       </c>
-      <c r="E7" s="70">
+      <c r="E7" s="123">
         <v>3</v>
       </c>
-      <c r="F7" s="70">
+      <c r="F7" s="123">
         <v>3</v>
       </c>
-      <c r="G7" s="70" t="s">
+      <c r="G7" s="123" t="s">
         <v>340</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="I7" s="71">
+      <c r="I7" s="124">
         <v>44351</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="123" t="s">
         <v>360</v>
       </c>
-      <c r="K7" s="73" t="s">
+      <c r="K7" s="126" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="84">
-      <c r="A8" s="69" t="s">
+    <row r="8" spans="1:11" ht="147">
+      <c r="A8" s="122" t="s">
         <v>362</v>
       </c>
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="123" t="s">
         <v>363</v>
       </c>
-      <c r="C8" s="70" t="s">
+      <c r="C8" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="123" t="s">
         <v>322</v>
       </c>
-      <c r="E8" s="70">
+      <c r="E8" s="123">
         <v>3</v>
       </c>
-      <c r="F8" s="70">
+      <c r="F8" s="123">
         <v>3</v>
       </c>
-      <c r="G8" s="70" t="s">
+      <c r="G8" s="123" t="s">
         <v>364</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="123" t="s">
         <v>150</v>
       </c>
-      <c r="I8" s="71">
+      <c r="I8" s="124">
         <v>44351</v>
       </c>
-      <c r="J8" s="70" t="s">
+      <c r="J8" s="123" t="s">
         <v>365</v>
       </c>
-      <c r="K8" s="73" t="s">
+      <c r="K8" s="126" t="s">
         <v>366</v>
       </c>
     </row>
@@ -7425,7 +7509,7 @@
   <dimension ref="A1:K51"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23:K36"/>
+      <selection activeCell="E15" sqref="E15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7443,1371 +7527,1159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="141"/>
-      <c r="B1" s="142"/>
-      <c r="C1" s="159" t="s">
+      <c r="A1" s="153"/>
+      <c r="B1" s="151"/>
+      <c r="C1" s="148" t="s">
         <v>367</v>
       </c>
-      <c r="D1" s="160"/>
-      <c r="E1" s="160"/>
-      <c r="F1" s="160"/>
-      <c r="G1" s="159" t="s">
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="148" t="s">
         <v>368</v>
       </c>
-      <c r="H1" s="159" t="s">
+      <c r="H1" s="148" t="s">
         <v>369</v>
       </c>
-      <c r="I1" s="159" t="s">
+      <c r="I1" s="148" t="s">
         <v>370</v>
       </c>
-      <c r="J1" s="159" t="s">
+      <c r="J1" s="148" t="s">
         <v>371</v>
       </c>
-      <c r="K1" s="159" t="s">
+      <c r="K1" s="148" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="143"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
+      <c r="A2" s="154"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="149"/>
+      <c r="H2" s="149"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="143"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="159" t="s">
+      <c r="A3" s="154"/>
+      <c r="B3" s="155"/>
+      <c r="C3" s="148" t="s">
         <v>373</v>
       </c>
-      <c r="D3" s="159" t="s">
+      <c r="D3" s="148" t="s">
         <v>374</v>
       </c>
-      <c r="E3" s="159" t="s">
+      <c r="E3" s="148" t="s">
         <v>375</v>
       </c>
-      <c r="F3" s="159" t="s">
+      <c r="F3" s="148" t="s">
         <v>376</v>
       </c>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
+      <c r="G3" s="150"/>
+      <c r="H3" s="150"/>
+      <c r="I3" s="150"/>
+      <c r="J3" s="150"/>
+      <c r="K3" s="150"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="145"/>
-      <c r="B4" s="146"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="160"/>
-      <c r="E4" s="160"/>
-      <c r="F4" s="160"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="158"/>
-      <c r="I4" s="158"/>
-      <c r="J4" s="158"/>
-      <c r="K4" s="158"/>
+      <c r="A4" s="156"/>
+      <c r="B4" s="152"/>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="156" t="s">
+      <c r="A5" s="131" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="157"/>
-      <c r="C5" s="138"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="138"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138"/>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="138"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="133"/>
+      <c r="G5" s="133"/>
+      <c r="H5" s="133"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="133"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="157"/>
-      <c r="B6" s="157"/>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="138"/>
+      <c r="A6" s="132"/>
+      <c r="B6" s="132"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="133"/>
+      <c r="E6" s="133"/>
+      <c r="F6" s="133"/>
+      <c r="G6" s="133"/>
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
+      <c r="K6" s="133"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="149" t="s">
+      <c r="A7" s="134" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="138"/>
-      <c r="C7" s="138">
+      <c r="B7" s="133"/>
+      <c r="C7" s="133">
         <v>3</v>
       </c>
-      <c r="D7" s="138">
-        <v>2</v>
-      </c>
-      <c r="E7" s="138">
-        <v>1</v>
-      </c>
-      <c r="F7" s="138">
-        <v>1</v>
-      </c>
-      <c r="G7" s="138">
+      <c r="D7" s="133">
+        <v>2</v>
+      </c>
+      <c r="E7" s="133">
+        <v>1</v>
+      </c>
+      <c r="F7" s="133">
+        <v>1</v>
+      </c>
+      <c r="G7" s="133">
         <f>SUM(C7:F8)</f>
         <v>7</v>
       </c>
-      <c r="H7" s="138">
-        <v>1</v>
-      </c>
-      <c r="I7" s="138">
+      <c r="H7" s="133">
+        <v>1</v>
+      </c>
+      <c r="I7" s="133">
         <f>G7*H7</f>
         <v>7</v>
       </c>
-      <c r="J7" s="138">
+      <c r="J7" s="133">
         <v>12</v>
       </c>
-      <c r="K7" s="138">
+      <c r="K7" s="133">
         <f>ROUNDUP((I7*J7)/36,2)</f>
         <v>2.34</v>
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="138"/>
-      <c r="B8" s="138"/>
-      <c r="C8" s="138"/>
-      <c r="D8" s="138"/>
-      <c r="E8" s="138"/>
-      <c r="F8" s="138"/>
-      <c r="G8" s="138"/>
-      <c r="H8" s="138"/>
-      <c r="I8" s="138"/>
-      <c r="J8" s="138"/>
-      <c r="K8" s="138"/>
+      <c r="A8" s="133"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="133"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="149" t="s">
+      <c r="A9" s="134" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="138"/>
-      <c r="C9" s="138">
+      <c r="B9" s="133"/>
+      <c r="C9" s="133">
         <v>3</v>
       </c>
-      <c r="D9" s="138">
-        <v>1</v>
-      </c>
-      <c r="E9" s="138">
-        <v>1</v>
-      </c>
-      <c r="F9" s="138">
-        <v>1</v>
-      </c>
-      <c r="G9" s="138">
+      <c r="D9" s="133">
+        <v>1</v>
+      </c>
+      <c r="E9" s="133">
+        <v>1</v>
+      </c>
+      <c r="F9" s="133">
+        <v>1</v>
+      </c>
+      <c r="G9" s="133">
         <f>SUM(C9:F10)</f>
         <v>6</v>
       </c>
-      <c r="H9" s="138">
-        <v>1</v>
-      </c>
-      <c r="I9" s="138">
+      <c r="H9" s="133">
+        <v>1</v>
+      </c>
+      <c r="I9" s="133">
         <f>G9*H9</f>
         <v>6</v>
       </c>
-      <c r="J9" s="138">
+      <c r="J9" s="133">
         <v>12</v>
       </c>
-      <c r="K9" s="138">
+      <c r="K9" s="133">
         <f t="shared" ref="K9" si="0">ROUNDUP((I9*J9)/36,2)</f>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="138"/>
-      <c r="B10" s="138"/>
-      <c r="C10" s="138"/>
-      <c r="D10" s="138"/>
-      <c r="E10" s="138"/>
-      <c r="F10" s="138"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="138"/>
-      <c r="J10" s="138"/>
-      <c r="K10" s="138"/>
+      <c r="A10" s="133"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="133"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="133"/>
+      <c r="K10" s="133"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="149" t="s">
+      <c r="A11" s="134" t="s">
         <v>377</v>
       </c>
-      <c r="B11" s="138"/>
-      <c r="C11" s="138">
+      <c r="B11" s="133"/>
+      <c r="C11" s="133">
         <v>3</v>
       </c>
-      <c r="D11" s="138">
-        <v>2</v>
-      </c>
-      <c r="E11" s="138">
-        <v>1</v>
-      </c>
-      <c r="F11" s="138">
-        <v>1</v>
-      </c>
-      <c r="G11" s="138">
+      <c r="D11" s="133">
+        <v>2</v>
+      </c>
+      <c r="E11" s="133">
+        <v>1</v>
+      </c>
+      <c r="F11" s="133">
+        <v>1</v>
+      </c>
+      <c r="G11" s="133">
         <f>SUM(C11:F12)</f>
         <v>7</v>
       </c>
-      <c r="H11" s="138">
-        <v>1</v>
-      </c>
-      <c r="I11" s="138">
+      <c r="H11" s="133">
+        <v>1</v>
+      </c>
+      <c r="I11" s="133">
         <f>G11*H11</f>
         <v>7</v>
       </c>
-      <c r="J11" s="138">
+      <c r="J11" s="133">
         <v>18</v>
       </c>
-      <c r="K11" s="138">
+      <c r="K11" s="133">
         <f t="shared" ref="K11" si="1">ROUNDUP((I11*J11)/36,2)</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="138"/>
-      <c r="B12" s="138"/>
-      <c r="C12" s="138"/>
-      <c r="D12" s="138"/>
-      <c r="E12" s="138"/>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="138"/>
-      <c r="I12" s="138"/>
-      <c r="J12" s="138"/>
-      <c r="K12" s="138"/>
+      <c r="A12" s="133"/>
+      <c r="B12" s="133"/>
+      <c r="C12" s="133"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="133"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="149" t="s">
+      <c r="A13" s="134" t="s">
         <v>378</v>
       </c>
-      <c r="B13" s="138"/>
-      <c r="C13" s="138">
+      <c r="B13" s="133"/>
+      <c r="C13" s="133">
         <v>3</v>
       </c>
-      <c r="D13" s="138">
-        <v>2</v>
-      </c>
-      <c r="E13" s="138">
-        <v>1</v>
-      </c>
-      <c r="F13" s="138">
+      <c r="D13" s="133">
+        <v>2</v>
+      </c>
+      <c r="E13" s="133">
+        <v>1</v>
+      </c>
+      <c r="F13" s="133">
         <v>3</v>
       </c>
-      <c r="G13" s="138">
+      <c r="G13" s="133">
         <f>SUM(C13:F14)</f>
         <v>9</v>
       </c>
-      <c r="H13" s="138">
-        <v>1</v>
-      </c>
-      <c r="I13" s="138">
+      <c r="H13" s="133">
+        <v>1</v>
+      </c>
+      <c r="I13" s="133">
         <f>G13*H13</f>
         <v>9</v>
       </c>
-      <c r="J13" s="138">
+      <c r="J13" s="133">
         <v>18</v>
       </c>
-      <c r="K13" s="138">
+      <c r="K13" s="133">
         <f t="shared" ref="K13" si="2">ROUNDUP((I13*J13)/36,2)</f>
         <v>4.5</v>
       </c>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="138"/>
-      <c r="B14" s="138"/>
-      <c r="C14" s="138"/>
-      <c r="D14" s="138"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="138"/>
-      <c r="I14" s="138"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="138"/>
+      <c r="A14" s="133"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="133"/>
+      <c r="K14" s="133"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="149" t="s">
+      <c r="A15" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="B15" s="138"/>
-      <c r="C15" s="138">
+      <c r="B15" s="133"/>
+      <c r="C15" s="133">
         <v>3</v>
       </c>
-      <c r="D15" s="138">
-        <v>2</v>
-      </c>
-      <c r="E15" s="138">
-        <v>1</v>
-      </c>
-      <c r="F15" s="138">
+      <c r="D15" s="133">
+        <v>2</v>
+      </c>
+      <c r="E15" s="133">
+        <v>1</v>
+      </c>
+      <c r="F15" s="133">
         <v>3</v>
       </c>
-      <c r="G15" s="138">
+      <c r="G15" s="133">
         <f>SUM(C15:F16)</f>
         <v>9</v>
       </c>
-      <c r="H15" s="138">
-        <v>1</v>
-      </c>
-      <c r="I15" s="138">
+      <c r="H15" s="133">
+        <v>1</v>
+      </c>
+      <c r="I15" s="133">
         <v>5</v>
       </c>
-      <c r="J15" s="138">
+      <c r="J15" s="133">
         <v>16</v>
       </c>
-      <c r="K15" s="138">
+      <c r="K15" s="133">
         <f t="shared" ref="K15:K43" si="3">ROUNDUP((I15*J15)/36,2)</f>
         <v>2.23</v>
       </c>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="138"/>
-      <c r="B16" s="138"/>
-      <c r="C16" s="138"/>
-      <c r="D16" s="138"/>
-      <c r="E16" s="138"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="138"/>
-      <c r="I16" s="138"/>
-      <c r="J16" s="138"/>
-      <c r="K16" s="138"/>
+      <c r="A16" s="133"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="133"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="133"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="133"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="149" t="s">
+      <c r="A17" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="138"/>
-      <c r="C17" s="138">
+      <c r="B17" s="133"/>
+      <c r="C17" s="133">
         <v>3</v>
       </c>
-      <c r="D17" s="138">
-        <v>2</v>
-      </c>
-      <c r="E17" s="138">
-        <v>1</v>
-      </c>
-      <c r="F17" s="138">
+      <c r="D17" s="133">
+        <v>2</v>
+      </c>
+      <c r="E17" s="133">
+        <v>1</v>
+      </c>
+      <c r="F17" s="133">
         <v>3</v>
       </c>
-      <c r="G17" s="138">
+      <c r="G17" s="133">
         <f>SUM(C17:F18)</f>
         <v>9</v>
       </c>
-      <c r="H17" s="138">
-        <v>1</v>
-      </c>
-      <c r="I17" s="138">
+      <c r="H17" s="133">
+        <v>1</v>
+      </c>
+      <c r="I17" s="133">
         <v>5</v>
       </c>
-      <c r="J17" s="138">
+      <c r="J17" s="133">
         <v>16</v>
       </c>
-      <c r="K17" s="138">
+      <c r="K17" s="133">
         <f t="shared" si="3"/>
         <v>2.23</v>
       </c>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="138"/>
-      <c r="B18" s="138"/>
-      <c r="C18" s="138"/>
-      <c r="D18" s="138"/>
-      <c r="E18" s="138"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="138"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="138"/>
+      <c r="A18" s="133"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="133"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="133"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="149"/>
-      <c r="B19" s="138"/>
-      <c r="C19" s="138"/>
-      <c r="D19" s="138"/>
-      <c r="E19" s="138"/>
-      <c r="F19" s="138"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="138"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="138"/>
-      <c r="K19" s="138">
+      <c r="A19" s="134"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="133"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="133"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="133"/>
+      <c r="K19" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="138"/>
-      <c r="B20" s="138"/>
-      <c r="C20" s="138"/>
-      <c r="D20" s="138"/>
-      <c r="E20" s="138"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="138"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="138"/>
+      <c r="A20" s="133"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="133"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="133"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="133"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="156" t="s">
+      <c r="A21" s="131" t="s">
         <v>125</v>
       </c>
-      <c r="B21" s="157"/>
-      <c r="C21" s="138"/>
-      <c r="D21" s="138"/>
-      <c r="E21" s="138"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="138">
+      <c r="B21" s="132"/>
+      <c r="C21" s="133"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="133"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="133"/>
+      <c r="J21" s="135"/>
+      <c r="K21" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="157"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="138"/>
-      <c r="D22" s="138"/>
-      <c r="E22" s="138"/>
-      <c r="F22" s="138"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="138"/>
-      <c r="J22" s="140"/>
-      <c r="K22" s="138"/>
+      <c r="A22" s="132"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="133"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="136"/>
+      <c r="K22" s="133"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="149" t="s">
+      <c r="A23" s="134" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="138"/>
-      <c r="C23" s="138">
+      <c r="B23" s="133"/>
+      <c r="C23" s="133">
         <v>3</v>
       </c>
-      <c r="D23" s="138">
-        <v>2</v>
-      </c>
-      <c r="E23" s="138">
+      <c r="D23" s="133">
+        <v>2</v>
+      </c>
+      <c r="E23" s="133">
         <v>3</v>
       </c>
-      <c r="F23" s="138">
-        <v>1</v>
-      </c>
-      <c r="G23" s="138">
+      <c r="F23" s="133">
+        <v>1</v>
+      </c>
+      <c r="G23" s="133">
         <f>SUM(C23:F24)</f>
         <v>9</v>
       </c>
-      <c r="H23" s="138">
-        <v>1</v>
-      </c>
-      <c r="I23" s="138">
+      <c r="H23" s="133">
+        <v>1</v>
+      </c>
+      <c r="I23" s="133">
         <f>G23*H23</f>
         <v>9</v>
       </c>
-      <c r="J23" s="154">
+      <c r="J23" s="137">
         <v>21</v>
       </c>
-      <c r="K23" s="138">
+      <c r="K23" s="133">
         <f t="shared" si="3"/>
         <v>5.25</v>
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="138"/>
-      <c r="B24" s="138"/>
-      <c r="C24" s="138"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="138"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="138"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="155"/>
-      <c r="K24" s="138"/>
+      <c r="A24" s="133"/>
+      <c r="B24" s="133"/>
+      <c r="C24" s="133"/>
+      <c r="D24" s="133"/>
+      <c r="E24" s="133"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="133"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="133"/>
+      <c r="J24" s="138"/>
+      <c r="K24" s="133"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="149" t="s">
+      <c r="A25" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="138"/>
-      <c r="C25" s="138">
+      <c r="B25" s="133"/>
+      <c r="C25" s="133">
         <v>3</v>
       </c>
-      <c r="D25" s="138">
-        <v>2</v>
-      </c>
-      <c r="E25" s="138">
-        <v>2</v>
-      </c>
-      <c r="F25" s="138">
-        <v>2</v>
-      </c>
-      <c r="G25" s="138">
+      <c r="D25" s="133">
+        <v>2</v>
+      </c>
+      <c r="E25" s="133">
+        <v>3</v>
+      </c>
+      <c r="F25" s="133">
+        <v>2</v>
+      </c>
+      <c r="G25" s="133">
         <f>SUM(C25:F26)</f>
-        <v>9</v>
-      </c>
-      <c r="H25" s="138">
-        <v>1</v>
-      </c>
-      <c r="I25" s="138">
+        <v>10</v>
+      </c>
+      <c r="H25" s="133">
+        <v>1</v>
+      </c>
+      <c r="I25" s="133">
         <f>G25*H25</f>
-        <v>9</v>
-      </c>
-      <c r="J25" s="154">
+        <v>10</v>
+      </c>
+      <c r="J25" s="137">
         <v>20</v>
       </c>
-      <c r="K25" s="138">
+      <c r="K25" s="133">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="138"/>
-      <c r="B26" s="138"/>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
-      <c r="E26" s="138"/>
-      <c r="F26" s="138"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="138"/>
-      <c r="I26" s="138"/>
-      <c r="J26" s="155"/>
-      <c r="K26" s="138"/>
+      <c r="A26" s="133"/>
+      <c r="B26" s="133"/>
+      <c r="C26" s="133"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="133"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="133"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="149" t="s">
+      <c r="A27" s="134" t="s">
         <v>128</v>
       </c>
-      <c r="B27" s="138"/>
-      <c r="C27" s="138">
+      <c r="B27" s="133"/>
+      <c r="C27" s="133">
         <v>3</v>
       </c>
-      <c r="D27" s="138">
-        <v>1</v>
-      </c>
-      <c r="E27" s="138">
-        <v>2</v>
-      </c>
-      <c r="F27" s="138">
+      <c r="D27" s="133">
+        <v>1</v>
+      </c>
+      <c r="E27" s="133">
+        <v>2</v>
+      </c>
+      <c r="F27" s="133">
         <v>3</v>
       </c>
-      <c r="G27" s="138">
+      <c r="G27" s="133">
         <v>8</v>
       </c>
-      <c r="H27" s="138">
-        <v>1</v>
-      </c>
-      <c r="I27" s="138">
+      <c r="H27" s="133">
+        <v>1</v>
+      </c>
+      <c r="I27" s="133">
         <f>G27*H27</f>
         <v>8</v>
       </c>
-      <c r="J27" s="154">
+      <c r="J27" s="137">
         <v>18</v>
       </c>
-      <c r="K27" s="138">
+      <c r="K27" s="133">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="138"/>
-      <c r="B28" s="138"/>
-      <c r="C28" s="138"/>
-      <c r="D28" s="138"/>
-      <c r="E28" s="138"/>
-      <c r="F28" s="138"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="138"/>
-      <c r="I28" s="138"/>
-      <c r="J28" s="155"/>
-      <c r="K28" s="138"/>
+      <c r="A28" s="133"/>
+      <c r="B28" s="133"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="133"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="133"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="149" t="s">
+      <c r="A29" s="134" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="138"/>
-      <c r="C29" s="138">
+      <c r="B29" s="133"/>
+      <c r="C29" s="133">
         <v>3</v>
       </c>
-      <c r="D29" s="138">
-        <v>1</v>
-      </c>
-      <c r="E29" s="138">
-        <v>2</v>
-      </c>
-      <c r="F29" s="138">
-        <v>1</v>
-      </c>
-      <c r="G29" s="138">
+      <c r="D29" s="133">
+        <v>1</v>
+      </c>
+      <c r="E29" s="133">
+        <v>2</v>
+      </c>
+      <c r="F29" s="133">
+        <v>1</v>
+      </c>
+      <c r="G29" s="133">
         <f>SUM(C29:F30)</f>
         <v>7</v>
       </c>
-      <c r="H29" s="138">
-        <v>1</v>
-      </c>
-      <c r="I29" s="138">
+      <c r="H29" s="133">
+        <v>1</v>
+      </c>
+      <c r="I29" s="133">
         <f>G29*H29</f>
         <v>7</v>
       </c>
-      <c r="J29" s="154">
+      <c r="J29" s="137">
         <v>12</v>
       </c>
-      <c r="K29" s="138">
+      <c r="K29" s="133">
         <f t="shared" si="3"/>
         <v>2.34</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="138"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="138"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="138"/>
-      <c r="I30" s="138"/>
-      <c r="J30" s="155"/>
-      <c r="K30" s="138"/>
+      <c r="A30" s="133"/>
+      <c r="B30" s="133"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="133"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="133"/>
+      <c r="H30" s="133"/>
+      <c r="I30" s="133"/>
+      <c r="J30" s="138"/>
+      <c r="K30" s="133"/>
     </row>
     <row r="31" spans="1:11">
-      <c r="A31" s="149" t="s">
+      <c r="A31" s="134" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="138"/>
-      <c r="C31" s="138">
+      <c r="B31" s="133"/>
+      <c r="C31" s="133">
         <v>3</v>
       </c>
-      <c r="D31" s="138">
+      <c r="D31" s="133">
         <v>3</v>
       </c>
-      <c r="E31" s="138">
-        <v>2</v>
-      </c>
-      <c r="F31" s="138">
+      <c r="E31" s="133">
+        <v>2</v>
+      </c>
+      <c r="F31" s="133">
         <v>3</v>
       </c>
-      <c r="G31" s="138">
+      <c r="G31" s="133">
         <f>SUM(C31:F32)</f>
         <v>11</v>
       </c>
-      <c r="H31" s="138">
-        <v>1</v>
-      </c>
-      <c r="I31" s="138">
+      <c r="H31" s="133">
+        <v>1</v>
+      </c>
+      <c r="I31" s="133">
         <f>G31*H31</f>
         <v>11</v>
       </c>
-      <c r="J31" s="154">
+      <c r="J31" s="137">
         <v>12</v>
       </c>
-      <c r="K31" s="138">
+      <c r="K31" s="133">
         <f t="shared" si="3"/>
         <v>3.67</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="138"/>
-      <c r="B32" s="138"/>
-      <c r="C32" s="138"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="138"/>
-      <c r="F32" s="138"/>
-      <c r="G32" s="138"/>
-      <c r="H32" s="138"/>
-      <c r="I32" s="138"/>
-      <c r="J32" s="155"/>
-      <c r="K32" s="138"/>
+      <c r="A32" s="133"/>
+      <c r="B32" s="133"/>
+      <c r="C32" s="133"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="133"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="133"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="133"/>
+      <c r="J32" s="138"/>
+      <c r="K32" s="133"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="149" t="s">
+      <c r="A33" s="134" t="s">
         <v>130</v>
       </c>
-      <c r="B33" s="138"/>
-      <c r="C33" s="138">
-        <v>1</v>
-      </c>
-      <c r="D33" s="138">
-        <v>1</v>
-      </c>
-      <c r="E33" s="138">
+      <c r="B33" s="133"/>
+      <c r="C33" s="133">
+        <v>1</v>
+      </c>
+      <c r="D33" s="133">
+        <v>1</v>
+      </c>
+      <c r="E33" s="133">
         <v>3</v>
       </c>
-      <c r="F33" s="138">
-        <v>1</v>
-      </c>
-      <c r="G33" s="138">
+      <c r="F33" s="133">
+        <v>1</v>
+      </c>
+      <c r="G33" s="133">
         <f>SUM(C33:F34)</f>
         <v>6</v>
       </c>
-      <c r="H33" s="138">
-        <v>1</v>
-      </c>
-      <c r="I33" s="138">
+      <c r="H33" s="133">
+        <v>1</v>
+      </c>
+      <c r="I33" s="133">
         <f>G33*H33</f>
         <v>6</v>
       </c>
-      <c r="J33" s="154">
+      <c r="J33" s="137">
         <v>18</v>
       </c>
-      <c r="K33" s="138">
+      <c r="K33" s="133">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="138"/>
-      <c r="B34" s="138"/>
-      <c r="C34" s="138"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="138"/>
-      <c r="F34" s="138"/>
-      <c r="G34" s="138"/>
-      <c r="H34" s="138"/>
-      <c r="I34" s="138"/>
-      <c r="J34" s="155"/>
-      <c r="K34" s="138"/>
+      <c r="A34" s="133"/>
+      <c r="B34" s="133"/>
+      <c r="C34" s="133"/>
+      <c r="D34" s="133"/>
+      <c r="E34" s="133"/>
+      <c r="F34" s="133"/>
+      <c r="G34" s="133"/>
+      <c r="H34" s="133"/>
+      <c r="I34" s="133"/>
+      <c r="J34" s="138"/>
+      <c r="K34" s="133"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="149" t="s">
+      <c r="A35" s="134" t="s">
         <v>131</v>
       </c>
-      <c r="B35" s="138"/>
-      <c r="C35" s="138">
+      <c r="B35" s="133"/>
+      <c r="C35" s="133">
         <v>3</v>
       </c>
-      <c r="D35" s="138">
-        <v>2</v>
-      </c>
-      <c r="E35" s="138">
-        <v>2</v>
-      </c>
-      <c r="F35" s="138">
+      <c r="D35" s="133">
+        <v>2</v>
+      </c>
+      <c r="E35" s="133">
+        <v>2</v>
+      </c>
+      <c r="F35" s="133">
         <v>3</v>
       </c>
-      <c r="G35" s="138">
+      <c r="G35" s="133">
         <f>SUM(C35:F36)</f>
         <v>10</v>
       </c>
-      <c r="H35" s="138">
-        <v>1</v>
-      </c>
-      <c r="I35" s="138">
+      <c r="H35" s="133">
+        <v>1</v>
+      </c>
+      <c r="I35" s="133">
         <f>G35*H35</f>
         <v>10</v>
       </c>
-      <c r="J35" s="154">
+      <c r="J35" s="137">
         <v>12</v>
       </c>
-      <c r="K35" s="138">
+      <c r="K35" s="133">
         <f t="shared" si="3"/>
         <v>3.34</v>
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="138"/>
-      <c r="B36" s="138"/>
-      <c r="C36" s="138"/>
-      <c r="D36" s="138"/>
-      <c r="E36" s="138"/>
-      <c r="F36" s="138"/>
-      <c r="G36" s="138"/>
-      <c r="H36" s="138"/>
-      <c r="I36" s="138"/>
-      <c r="J36" s="155"/>
-      <c r="K36" s="138"/>
+      <c r="A36" s="133"/>
+      <c r="B36" s="133"/>
+      <c r="C36" s="133"/>
+      <c r="D36" s="133"/>
+      <c r="E36" s="133"/>
+      <c r="F36" s="133"/>
+      <c r="G36" s="133"/>
+      <c r="H36" s="133"/>
+      <c r="I36" s="133"/>
+      <c r="J36" s="138"/>
+      <c r="K36" s="133"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="149"/>
-      <c r="B37" s="138"/>
-      <c r="C37" s="138"/>
-      <c r="D37" s="138"/>
-      <c r="E37" s="138"/>
-      <c r="F37" s="138"/>
-      <c r="G37" s="138"/>
-      <c r="H37" s="138"/>
-      <c r="I37" s="138"/>
-      <c r="J37" s="154"/>
-      <c r="K37" s="138">
+      <c r="A37" s="134"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="133"/>
+      <c r="D37" s="133"/>
+      <c r="E37" s="133"/>
+      <c r="F37" s="133"/>
+      <c r="G37" s="133"/>
+      <c r="H37" s="133"/>
+      <c r="I37" s="133"/>
+      <c r="J37" s="137"/>
+      <c r="K37" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="138"/>
-      <c r="B38" s="138"/>
-      <c r="C38" s="138"/>
-      <c r="D38" s="138"/>
-      <c r="E38" s="138"/>
-      <c r="F38" s="138"/>
-      <c r="G38" s="138"/>
-      <c r="H38" s="138"/>
-      <c r="I38" s="138"/>
-      <c r="J38" s="155"/>
-      <c r="K38" s="138"/>
+      <c r="A38" s="133"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="133"/>
+      <c r="D38" s="133"/>
+      <c r="E38" s="133"/>
+      <c r="F38" s="133"/>
+      <c r="G38" s="133"/>
+      <c r="H38" s="133"/>
+      <c r="I38" s="133"/>
+      <c r="J38" s="138"/>
+      <c r="K38" s="133"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="156" t="s">
+      <c r="A39" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="B39" s="138"/>
-      <c r="C39" s="138"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="138"/>
-      <c r="F39" s="138"/>
-      <c r="G39" s="138"/>
-      <c r="H39" s="138"/>
-      <c r="I39" s="138"/>
-      <c r="J39" s="138"/>
-      <c r="K39" s="138">
+      <c r="B39" s="133"/>
+      <c r="C39" s="133"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="133"/>
+      <c r="K39" s="133">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="138"/>
-      <c r="B40" s="138"/>
-      <c r="C40" s="138"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="138"/>
-      <c r="F40" s="138"/>
-      <c r="G40" s="138"/>
-      <c r="H40" s="138"/>
-      <c r="I40" s="138"/>
-      <c r="J40" s="138"/>
-      <c r="K40" s="138"/>
+      <c r="A40" s="133"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="133"/>
+      <c r="D40" s="133"/>
+      <c r="E40" s="133"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="133"/>
+      <c r="J40" s="133"/>
+      <c r="K40" s="133"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="149" t="s">
+      <c r="A41" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="138"/>
-      <c r="C41" s="138">
+      <c r="B41" s="133"/>
+      <c r="C41" s="133">
         <v>3</v>
       </c>
-      <c r="D41" s="138">
-        <v>1</v>
-      </c>
-      <c r="E41" s="138">
+      <c r="D41" s="133">
+        <v>1</v>
+      </c>
+      <c r="E41" s="133">
         <v>3</v>
       </c>
-      <c r="F41" s="138">
-        <v>1</v>
-      </c>
-      <c r="G41" s="138">
+      <c r="F41" s="133">
+        <v>1</v>
+      </c>
+      <c r="G41" s="133">
         <f>SUM(C41:F42)</f>
         <v>8</v>
       </c>
-      <c r="H41" s="138">
-        <v>1</v>
-      </c>
-      <c r="I41" s="138">
+      <c r="H41" s="133">
+        <v>1</v>
+      </c>
+      <c r="I41" s="133">
         <f>G41*H41</f>
         <v>8</v>
       </c>
-      <c r="J41" s="138">
+      <c r="J41" s="133">
         <v>18</v>
       </c>
-      <c r="K41" s="138">
+      <c r="K41" s="133">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="138"/>
-      <c r="B42" s="138"/>
-      <c r="C42" s="138"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="138"/>
-      <c r="F42" s="138"/>
-      <c r="G42" s="138"/>
-      <c r="H42" s="138"/>
-      <c r="I42" s="138"/>
-      <c r="J42" s="138"/>
-      <c r="K42" s="138"/>
+      <c r="A42" s="133"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="133"/>
+      <c r="D42" s="133"/>
+      <c r="E42" s="133"/>
+      <c r="F42" s="133"/>
+      <c r="G42" s="133"/>
+      <c r="H42" s="133"/>
+      <c r="I42" s="133"/>
+      <c r="J42" s="133"/>
+      <c r="K42" s="133"/>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="149" t="s">
+      <c r="A43" s="134" t="s">
         <v>174</v>
       </c>
-      <c r="B43" s="138"/>
-      <c r="C43" s="138">
-        <v>1</v>
-      </c>
-      <c r="D43" s="138">
-        <v>1</v>
-      </c>
-      <c r="E43" s="138">
-        <v>2</v>
-      </c>
-      <c r="F43" s="138">
-        <v>1</v>
-      </c>
-      <c r="G43" s="138">
+      <c r="B43" s="133"/>
+      <c r="C43" s="133">
+        <v>1</v>
+      </c>
+      <c r="D43" s="133">
+        <v>1</v>
+      </c>
+      <c r="E43" s="133">
+        <v>2</v>
+      </c>
+      <c r="F43" s="133">
+        <v>1</v>
+      </c>
+      <c r="G43" s="133">
         <f>SUM(C43:F44)</f>
         <v>5</v>
       </c>
-      <c r="H43" s="138">
-        <v>1</v>
-      </c>
-      <c r="I43" s="138">
+      <c r="H43" s="133">
+        <v>1</v>
+      </c>
+      <c r="I43" s="133">
         <f>G43*H43</f>
         <v>5</v>
       </c>
-      <c r="J43" s="138">
+      <c r="J43" s="133">
         <v>20</v>
       </c>
-      <c r="K43" s="138">
+      <c r="K43" s="133">
         <f t="shared" si="3"/>
         <v>2.78</v>
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="138"/>
-      <c r="B44" s="138"/>
-      <c r="C44" s="138"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="138"/>
-      <c r="F44" s="138"/>
-      <c r="G44" s="138"/>
-      <c r="H44" s="138"/>
-      <c r="I44" s="138"/>
-      <c r="J44" s="138"/>
-      <c r="K44" s="138"/>
+      <c r="A44" s="133"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="133"/>
+      <c r="D44" s="133"/>
+      <c r="E44" s="133"/>
+      <c r="F44" s="133"/>
+      <c r="G44" s="133"/>
+      <c r="H44" s="133"/>
+      <c r="I44" s="133"/>
+      <c r="J44" s="133"/>
+      <c r="K44" s="133"/>
     </row>
     <row r="45" spans="1:11" ht="21">
-      <c r="A45" s="150" t="s">
+      <c r="A45" s="139" t="s">
         <v>83</v>
       </c>
-      <c r="B45" s="151"/>
-      <c r="C45" s="77"/>
-      <c r="D45" s="139">
-        <v>1</v>
-      </c>
-      <c r="E45" s="139">
-        <v>2</v>
-      </c>
-      <c r="F45" s="77"/>
-      <c r="G45" s="139">
+      <c r="B45" s="140"/>
+      <c r="C45" s="141"/>
+      <c r="D45" s="135">
+        <v>1</v>
+      </c>
+      <c r="E45" s="135">
+        <v>2</v>
+      </c>
+      <c r="F45" s="141"/>
+      <c r="G45" s="135">
         <f>SUM(C45:F46)</f>
         <v>7</v>
       </c>
-      <c r="H45" s="139">
-        <v>1</v>
-      </c>
-      <c r="I45" s="139">
+      <c r="H45" s="135">
+        <v>1</v>
+      </c>
+      <c r="I45" s="135">
         <v>7</v>
       </c>
-      <c r="J45" s="77"/>
-      <c r="K45" s="139">
+      <c r="J45" s="141"/>
+      <c r="K45" s="135">
         <f>ROUNDUP((I45*J46)/36,2)</f>
         <v>4.2799999999999994</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="20" customHeight="1">
-      <c r="A46" s="152"/>
-      <c r="B46" s="153"/>
-      <c r="C46" s="78">
+    <row r="46" spans="1:11" ht="21">
+      <c r="A46" s="142"/>
+      <c r="B46" s="143"/>
+      <c r="C46" s="144">
         <v>3</v>
       </c>
-      <c r="D46" s="140"/>
-      <c r="E46" s="140"/>
-      <c r="F46" s="79">
-        <v>1</v>
-      </c>
-      <c r="G46" s="140"/>
-      <c r="H46" s="140"/>
-      <c r="I46" s="140"/>
-      <c r="J46" s="79">
+      <c r="D46" s="136"/>
+      <c r="E46" s="136"/>
+      <c r="F46" s="145">
+        <v>1</v>
+      </c>
+      <c r="G46" s="136"/>
+      <c r="H46" s="136"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="145">
         <v>22</v>
       </c>
-      <c r="K46" s="140"/>
+      <c r="K46" s="136"/>
     </row>
     <row r="47" spans="1:11" ht="21">
-      <c r="A47" s="147" t="s">
+      <c r="A47" s="146" t="s">
         <v>179</v>
       </c>
-      <c r="B47" s="148"/>
-      <c r="C47" s="78">
+      <c r="B47" s="147"/>
+      <c r="C47" s="144">
         <v>3</v>
       </c>
-      <c r="D47" s="79">
-        <v>1</v>
-      </c>
-      <c r="E47" s="79">
+      <c r="D47" s="145">
+        <v>1</v>
+      </c>
+      <c r="E47" s="145">
         <v>3</v>
       </c>
-      <c r="F47" s="79">
-        <v>1</v>
-      </c>
-      <c r="G47" s="79">
+      <c r="F47" s="145">
+        <v>1</v>
+      </c>
+      <c r="G47" s="145">
         <f>SUM(C47:F47)</f>
         <v>8</v>
       </c>
-      <c r="H47" s="79">
-        <v>1</v>
-      </c>
-      <c r="I47" s="79">
+      <c r="H47" s="145">
+        <v>1</v>
+      </c>
+      <c r="I47" s="145">
         <v>8</v>
       </c>
-      <c r="J47" s="79">
+      <c r="J47" s="145">
         <v>22</v>
       </c>
-      <c r="K47" s="79">
+      <c r="K47" s="145">
         <f>ROUNDUP((I47*J47)/36,2)</f>
         <v>4.8899999999999997</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="21">
-      <c r="A48" s="147" t="s">
+      <c r="A48" s="146" t="s">
         <v>379</v>
       </c>
-      <c r="B48" s="148"/>
-      <c r="C48" s="78">
+      <c r="B48" s="147"/>
+      <c r="C48" s="144">
         <v>3</v>
       </c>
-      <c r="D48" s="79">
-        <v>1</v>
-      </c>
-      <c r="E48" s="79">
+      <c r="D48" s="145">
+        <v>1</v>
+      </c>
+      <c r="E48" s="145">
         <v>3</v>
       </c>
-      <c r="F48" s="79">
-        <v>1</v>
-      </c>
-      <c r="G48" s="79">
+      <c r="F48" s="145">
+        <v>1</v>
+      </c>
+      <c r="G48" s="145">
         <v>8</v>
       </c>
-      <c r="H48" s="79">
-        <v>1</v>
-      </c>
-      <c r="I48" s="79">
+      <c r="H48" s="145">
+        <v>1</v>
+      </c>
+      <c r="I48" s="145">
         <v>8</v>
       </c>
-      <c r="J48" s="79">
+      <c r="J48" s="145">
         <v>20</v>
       </c>
-      <c r="K48" s="79">
+      <c r="K48" s="145">
         <f>ROUNDUP((I48*J48)/36,2)</f>
         <v>4.45</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="21">
-      <c r="A49" s="147" t="s">
+      <c r="A49" s="146" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="148"/>
-      <c r="C49" s="78">
-        <v>1</v>
-      </c>
-      <c r="D49" s="79">
-        <v>1</v>
-      </c>
-      <c r="E49" s="79">
+      <c r="B49" s="147"/>
+      <c r="C49" s="144">
+        <v>1</v>
+      </c>
+      <c r="D49" s="145">
+        <v>1</v>
+      </c>
+      <c r="E49" s="145">
         <v>3</v>
       </c>
-      <c r="F49" s="79">
-        <v>1</v>
-      </c>
-      <c r="G49" s="79">
+      <c r="F49" s="145">
+        <v>1</v>
+      </c>
+      <c r="G49" s="145">
         <v>6</v>
       </c>
-      <c r="H49" s="79">
-        <v>1</v>
-      </c>
-      <c r="I49" s="79">
+      <c r="H49" s="145">
+        <v>1</v>
+      </c>
+      <c r="I49" s="145">
         <v>6</v>
       </c>
-      <c r="J49" s="79">
+      <c r="J49" s="145">
         <v>20</v>
       </c>
-      <c r="K49" s="79">
+      <c r="K49" s="145">
         <f>ROUNDUP((I49*J49)/36,2)</f>
         <v>3.34</v>
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="149" t="s">
+      <c r="A50" s="134" t="s">
         <v>80</v>
       </c>
-      <c r="B50" s="138"/>
-      <c r="C50" s="138">
-        <v>1</v>
-      </c>
-      <c r="D50" s="138">
-        <v>1</v>
-      </c>
-      <c r="E50" s="138">
-        <v>1</v>
-      </c>
-      <c r="F50" s="138">
-        <v>1</v>
-      </c>
-      <c r="G50" s="138">
+      <c r="B50" s="133"/>
+      <c r="C50" s="133">
+        <v>1</v>
+      </c>
+      <c r="D50" s="133">
+        <v>1</v>
+      </c>
+      <c r="E50" s="133">
+        <v>1</v>
+      </c>
+      <c r="F50" s="133">
+        <v>1</v>
+      </c>
+      <c r="G50" s="133">
         <f>SUM(C50:F51)</f>
         <v>4</v>
       </c>
-      <c r="H50" s="138">
-        <v>1</v>
-      </c>
-      <c r="I50" s="138">
+      <c r="H50" s="133">
+        <v>1</v>
+      </c>
+      <c r="I50" s="133">
         <f>G50*H50</f>
         <v>4</v>
       </c>
-      <c r="J50" s="138">
+      <c r="J50" s="133">
         <v>18</v>
       </c>
-      <c r="K50" s="139">
+      <c r="K50" s="135">
         <f>(I50*J50)/36</f>
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="138"/>
-      <c r="B51" s="138"/>
-      <c r="C51" s="138"/>
-      <c r="D51" s="138"/>
-      <c r="E51" s="138"/>
-      <c r="F51" s="138"/>
-      <c r="G51" s="138"/>
-      <c r="H51" s="138"/>
-      <c r="I51" s="138"/>
-      <c r="J51" s="138"/>
-      <c r="K51" s="140"/>
+      <c r="A51" s="133"/>
+      <c r="B51" s="133"/>
+      <c r="C51" s="133"/>
+      <c r="D51" s="133"/>
+      <c r="E51" s="133"/>
+      <c r="F51" s="133"/>
+      <c r="G51" s="133"/>
+      <c r="H51" s="133"/>
+      <c r="I51" s="133"/>
+      <c r="J51" s="133"/>
+      <c r="K51" s="136"/>
     </row>
   </sheetData>
   <mergeCells count="236">
-    <mergeCell ref="C1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="A5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="A7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="K9:K10"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
-    <mergeCell ref="I11:I12"/>
-    <mergeCell ref="J11:J12"/>
-    <mergeCell ref="K11:K12"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="I15:I16"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:K16"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="H25:H26"/>
-    <mergeCell ref="I25:I26"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="A31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="A35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="H35:H36"/>
-    <mergeCell ref="I35:I36"/>
-    <mergeCell ref="J35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="H39:H40"/>
-    <mergeCell ref="I39:I40"/>
-    <mergeCell ref="J39:J40"/>
-    <mergeCell ref="K39:K40"/>
-    <mergeCell ref="A41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="K41:K42"/>
-    <mergeCell ref="A43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
     <mergeCell ref="H50:H51"/>
     <mergeCell ref="I50:I51"/>
     <mergeCell ref="J50:J51"/>
@@ -8832,6 +8704,218 @@
     <mergeCell ref="E45:E46"/>
     <mergeCell ref="G45:G46"/>
     <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="A43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="H39:H40"/>
+    <mergeCell ref="I39:I40"/>
+    <mergeCell ref="J39:J40"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="A41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="I35:I36"/>
+    <mergeCell ref="J35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="A35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="I25:I26"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="I11:I12"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="K11:K12"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="K9:K10"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="A7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="C1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
